--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail14 Features.xlsx
@@ -5706,7 +5706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5718,28 +5718,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5760,115 +5758,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5885,72 +5873,66 @@
         <v>2.068846134854972e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.59358391840763</v>
+        <v>1.280274290305336e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.352537624828362</v>
+        <v>3.112804119394837e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.280274290305336e-06</v>
+        <v>0.07787111558623082</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.112804119394837e-06</v>
+        <v>0.2736858925399336</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07787111558623082</v>
+        <v>0.08078965183360207</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2736858925399336</v>
+        <v>1.902312526076975</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08078965183360207</v>
+        <v>1.582596446503521</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.881014704536948</v>
+        <v>4.483388406014678</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.582596446503521</v>
+        <v>2.059301485316454e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.483388406014678</v>
+        <v>100672240.7032436</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.059301485316454e-15</v>
+        <v>1.204739978019023e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>100672240.7032436</v>
+        <v>20.87081472281641</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.204739978019023e-06</v>
+        <v>0.0002093863559735827</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>20.87081472281641</v>
+        <v>11.43248024265264</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002093863559735827</v>
+        <v>1.291826852721398</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.43248024265264</v>
+        <v>0.02736713268587128</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.291826852721398</v>
+        <v>2.779073401353144</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02736713268587128</v>
+        <v>0.9622330987032889</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.779073401353144</v>
+        <v>1.441692411236085</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9622330987032889</v>
+        <v>5</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.441692411236085</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.374830807115983</v>
       </c>
     </row>
@@ -5965,72 +5947,66 @@
         <v>1.739408449031697e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.8582142439431465</v>
+        <v>9.849582322840631e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.489239201431456</v>
+        <v>3.126429459211307e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.849582322840631e-07</v>
+        <v>0.06604649325010933</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.126429459211307e-06</v>
+        <v>0.2485045235437464</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.06604649325010933</v>
+        <v>0.06598463111574265</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2485045235437464</v>
+        <v>1.900761404742132</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06598463111574265</v>
+        <v>1.553799320011484</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.878700372390413</v>
+        <v>5.072936329542695</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.553799320011484</v>
+        <v>1.957016036783305e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.072936329542695</v>
+        <v>105088969.6690116</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.957016036783305e-15</v>
+        <v>1.154617479606913e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>105088969.6690116</v>
+        <v>21.61268146099503</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.154617479606913e-06</v>
+        <v>0.0002063201003444722</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>21.61268146099503</v>
+        <v>13.1986232006984</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002063201003444722</v>
+        <v>1.119645735232366</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.1986232006984</v>
+        <v>0.03594171545494672</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.119645735232366</v>
+        <v>2.816133197925203</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.03594171545494672</v>
+        <v>0.9621055648370668</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.816133197925203</v>
+        <v>1.451004513486905</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9621055648370668</v>
+        <v>5</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.451004513486905</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.4983022027196926</v>
       </c>
     </row>
@@ -6045,72 +6021,66 @@
         <v>1.538916251892673e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3054235302966936</v>
+        <v>7.748859859928953e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.2975824709023231</v>
+        <v>3.136303139973413e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.748859859928953e-07</v>
+        <v>0.05537549634232523</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.136303139973413e-06</v>
+        <v>0.2252531168877016</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.05537549634232523</v>
+        <v>0.05371367651238144</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2252531168877016</v>
+        <v>1.886339930963335</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05371367651238144</v>
+        <v>1.566086550025512</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.867179733665907</v>
+        <v>4.499028275642351</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.566086550025512</v>
+        <v>2.191592154981131e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.499028275642351</v>
+        <v>93978071.69926773</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.191592154981131e-15</v>
+        <v>1.284328944097394e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>93978071.69926773</v>
+        <v>19.35587445157208</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.284328944097394e-06</v>
+        <v>0.0002272816474524152</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>19.35587445157208</v>
+        <v>14.12177320884184</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002272816474524152</v>
+        <v>1.011862728254954</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>14.12177320884184</v>
+        <v>0.04532552402990188</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.011862728254954</v>
+        <v>2.494381846717555</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.04532552402990188</v>
+        <v>0.961767853932623</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.494381846717555</v>
+        <v>1.443909905231328</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.961767853932623</v>
+        <v>5</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.443909905231328</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.4061870144560722</v>
       </c>
     </row>
@@ -6125,72 +6095,66 @@
         <v>1.422261662827433e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.003516517426458415</v>
+        <v>6.173729928917373e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.077114042839249</v>
+        <v>3.14380858577575e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.173729928917373e-07</v>
+        <v>0.04663518720873413</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.14380858577575e-06</v>
+        <v>0.2045850705233562</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04663518720873413</v>
+        <v>0.04396052238602068</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2045850705233562</v>
+        <v>1.798134403774141</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04396052238602068</v>
+        <v>1.64840917348324</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.752843709979474</v>
+        <v>4.747389158104267</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.64840917348324</v>
+        <v>2.14146211343994e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.747389158104267</v>
+        <v>99219236.12760188</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.14146211343994e-15</v>
+        <v>1.178490437145246e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>99219236.12760188</v>
+        <v>21.08153130259604</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.178490437145246e-06</v>
+        <v>0.000230657756819112</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>21.08153130259604</v>
+        <v>13.87490748403168</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000230657756819112</v>
+        <v>0.9916619231420677</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.87490748403168</v>
+        <v>0.04440463004526481</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0.9916619231420677</v>
+        <v>2.316820009760408</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.04440463004526481</v>
+        <v>0.9577045260533216</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.316820009760408</v>
+        <v>1.599536584255741</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9577045260533216</v>
+        <v>1</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.599536584255741</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3105668925934689</v>
       </c>
     </row>
@@ -6205,72 +6169,66 @@
         <v>1.361371476338034e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.0831319844181361</v>
+        <v>4.92599259068578e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.257761290906407</v>
+        <v>3.149700963622403e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.92599259068578e-07</v>
+        <v>0.03854556944922147</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.149700963622403e-06</v>
+        <v>0.1844693987664723</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03854556944922147</v>
+        <v>0.03547024892544616</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1844693987664723</v>
+        <v>1.775051226668882</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03547024892544616</v>
+        <v>1.671462637904968</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.721381025262921</v>
+        <v>4.567084441871675</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.671462637904968</v>
+        <v>2.856832470133618e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.567084441871675</v>
+        <v>70128423.70133409</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.856832470133618e-15</v>
+        <v>1.646578261822523e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>70128423.70133409</v>
+        <v>14.04989012037121</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.646578261822523e-06</v>
+        <v>0.0002199922764008327</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>14.04989012037121</v>
+        <v>10.19427056295427</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002199922764008327</v>
+        <v>1.472374488029614</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.19427056295427</v>
+        <v>0.02286229084758487</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.472374488029614</v>
+        <v>2.718750782067846</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02286229084758487</v>
+        <v>0.9552932060185915</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.718750782067846</v>
+        <v>1.761750804031988</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9552932060185915</v>
+        <v>1</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.761750804031988</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2030074950016</v>
       </c>
     </row>
@@ -6285,72 +6243,66 @@
         <v>1.334289118423417e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.05717861466039789</v>
+        <v>4.470136814647819e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.251869424263247</v>
+        <v>3.154509523024115e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.470136814647819e-07</v>
+        <v>0.0338644574500585</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.154509523024115e-06</v>
+        <v>0.1751522485638909</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.0338644574500585</v>
+        <v>0.03180604322354997</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1751522485638909</v>
+        <v>1.742375273417369</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03180604322354997</v>
+        <v>1.705660769646639</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.675096047128333</v>
+        <v>4.497070469803738</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.705660769646639</v>
+        <v>2.946479813351309e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.497070469803738</v>
+        <v>69526733.60497481</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.946479813351309e-15</v>
+        <v>1.646705538391474e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>69526733.60497481</v>
+        <v>14.24318525805505</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.646705538391474e-06</v>
+        <v>0.0001576879188006674</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>14.24318525805505</v>
+        <v>8.841544593593635</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001576879188006674</v>
+        <v>1.490276468001493</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.841544593593635</v>
+        <v>0.01232692361072183</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.490276468001493</v>
+        <v>3.044078210691123</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01232692361072183</v>
+        <v>0.9524455294472279</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.044078210691123</v>
+        <v>1.781083066939741</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9524455294472279</v>
+        <v>2</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.781083066939741</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1914977349861529</v>
       </c>
     </row>
@@ -6365,72 +6317,66 @@
         <v>1.324897545440666e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.003511444494905508</v>
+        <v>4.470136814647819e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.236738621120935</v>
+        <v>3.158981872520715e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.470136814647819e-07</v>
+        <v>0.03435394946528537</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.158981872520715e-06</v>
+        <v>0.1766625751452572</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03435394946528537</v>
+        <v>0.03237638273140252</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1766625751452572</v>
+        <v>1.717165750741462</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03237638273140252</v>
+        <v>1.653515597023331</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.641736936678903</v>
+        <v>4.30703210946114</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.653515597023331</v>
+        <v>3.212230025392886e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.30703210946114</v>
+        <v>63380420.31532975</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.212230025392886e-15</v>
+        <v>1.798394470606023e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>63380420.31532975</v>
+        <v>12.90377753593679</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.798394470606023e-06</v>
+        <v>0.0001234351350997647</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>12.90377753593679</v>
+        <v>8.420840172886116</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001234351350997647</v>
+        <v>1.251074974611624</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.420840172886116</v>
+        <v>0.008752853222635037</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.251074974611624</v>
+        <v>3.032565347307768</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008752853222635037</v>
+        <v>0.951369741463139</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.032565347307768</v>
+        <v>1.778766333333432</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.951369741463139</v>
+        <v>2</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.778766333333432</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2149332294999941</v>
       </c>
     </row>
@@ -6445,72 +6391,66 @@
         <v>1.328427898772323e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.06759560018049193</v>
+        <v>4.470136814647819e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.236442338297679</v>
+        <v>3.163781546022783e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.470136814647819e-07</v>
+        <v>0.03850808740136769</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.163781546022783e-06</v>
+        <v>0.1823308149305576</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03850808740136769</v>
+        <v>0.03471415840865413</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1823308149305576</v>
+        <v>1.662687184140681</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03471415840865413</v>
+        <v>1.667495497766559</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.581056368166643</v>
+        <v>4.336742786449749</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.667495497766559</v>
+        <v>3.168367331221766e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.336742786449749</v>
+        <v>62089733.46964543</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.168367331221766e-15</v>
+        <v>1.783215811424201e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>62089733.46964543</v>
+        <v>12.21448379883702</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.783215811424201e-06</v>
+        <v>0.0001243124656249334</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>12.21448379883702</v>
+        <v>8.145453099619864</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001243124656249334</v>
+        <v>1.273222465311358</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.145453099619864</v>
+        <v>0.008247933964771279</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.273222465311358</v>
+        <v>2.915312201261651</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008247933964771279</v>
+        <v>0.9490436325822629</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.915312201261651</v>
+        <v>1.811088367599789</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9490436325822629</v>
+        <v>2</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.811088367599789</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2174678475211408</v>
       </c>
     </row>
@@ -6525,72 +6465,66 @@
         <v>1.345113022078292e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.1126833761615579</v>
+        <v>4.643113866454717e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.226600109487039</v>
+        <v>3.169283456731534e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.643113866454717e-07</v>
+        <v>0.04388863705547821</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.169283456731534e-06</v>
+        <v>0.1860343347648745</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.04388863705547821</v>
+        <v>0.03652810662439065</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1860343347648745</v>
+        <v>1.555776631279745</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03652810662439065</v>
+        <v>1.422684262771355</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.476170326835725</v>
+        <v>6.391966821606081</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.422684262771355</v>
+        <v>6.386956781649599e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>6.391966821606081</v>
+        <v>34422082.57024654</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.386956781649599e-15</v>
+        <v>2.946233907553153e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>34422082.57024654</v>
+        <v>7.567775872687209</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.946233907553153e-06</v>
+        <v>0.0001307965730657104</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>7.567775872687209</v>
+        <v>8.032991831990918</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001307965730657104</v>
+        <v>1.38940441819144</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.032991831990918</v>
+        <v>0.008440166540188466</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.38940441819144</v>
+        <v>2.840122589943592</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.008440166540188466</v>
+        <v>0.9415084450729521</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.840122589943592</v>
+        <v>1.817516118513089</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9415084450729521</v>
+        <v>3</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.817516118513089</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2270028142216548</v>
       </c>
     </row>
@@ -6605,72 +6539,66 @@
         <v>1.37020237955196e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.1342904510816465</v>
+        <v>4.8914705649836e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.184645116527253</v>
+        <v>3.175495225543903e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.8914705649836e-07</v>
+        <v>0.04701462327459002</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.175495225543903e-06</v>
+        <v>0.1832928875167089</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.04701462327459002</v>
+        <v>0.03580625560989814</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1832928875167089</v>
+        <v>1.508826031974208</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03580625560989814</v>
+        <v>1.368331692961496</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.42616057282215</v>
+        <v>4.386211169913295</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.368331692961496</v>
+        <v>1.855682179400646e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.386211169913295</v>
+        <v>12159419.55924822</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.855682179400646e-14</v>
+        <v>8.150783162599126e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>12159419.55924822</v>
+        <v>2.743653640898231</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.150783162599126e-06</v>
+        <v>0.0001481198687169656</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>2.743653640898231</v>
+        <v>9.309867886886641</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001481198687169656</v>
+        <v>1.855080279143682</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.309867886886641</v>
+        <v>0.01283808818857999</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.855080279143682</v>
+        <v>3.026691957582121</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01283808818857999</v>
+        <v>0.9371168833722222</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.026691957582121</v>
+        <v>1.915995050993353</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9371168833722222</v>
+        <v>3</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.915995050993353</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2232920299648558</v>
       </c>
     </row>
@@ -6685,72 +6613,66 @@
         <v>1.391775430945322e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.1585004665612923</v>
+        <v>4.895928221455926e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.139114033445129</v>
+        <v>3.182030044747775e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.895928221455926e-07</v>
+        <v>0.04721817120261003</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.182030044747775e-06</v>
+        <v>0.1798644825866595</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.04721817120261003</v>
+        <v>0.03457874057151984</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1798644825866595</v>
+        <v>1.46500915371684</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03457874057151984</v>
+        <v>1.367712498551172</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.3825792162704</v>
+        <v>3.937459645328687</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.367712498551172</v>
+        <v>2.302769341024578e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.937459645328687</v>
+        <v>10355745.71433974</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.302769341024578e-14</v>
+        <v>9.420713735017128e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>10355745.71433974</v>
+        <v>2.469523675906203</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>9.420713735017128e-06</v>
+        <v>0.0001354746705310537</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>2.469523675906203</v>
+        <v>8.266105393908163</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001354746705310537</v>
+        <v>1.576609354519486</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.266105393908163</v>
+        <v>0.009256780806345333</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.576609354519486</v>
+        <v>2.966308412484935</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.009256780806345333</v>
+        <v>0.9347176213251405</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.966308412484935</v>
+        <v>1.903308343273558</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9347176213251405</v>
+        <v>3</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.903308343273558</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1861643440043782</v>
       </c>
     </row>
@@ -6765,72 +6687,66 @@
         <v>1.401727655622812e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1990886510387413</v>
+        <v>4.895928221455926e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.101845602144817</v>
+        <v>3.188579893329099e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.895928221455926e-07</v>
+        <v>0.04639484614722385</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.188579893329099e-06</v>
+        <v>0.1791533255082498</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.04639484614722385</v>
+        <v>0.03424484362407221</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1791533255082498</v>
+        <v>1.444527591615524</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03424484362407221</v>
+        <v>1.369097927021642</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.359043081106806</v>
+        <v>3.903989491158249</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.369097927021642</v>
+        <v>2.342423359199056e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.903989491158249</v>
+        <v>10552698.43876764</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.342423359199056e-14</v>
+        <v>9.295602517773128e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>10552698.43876764</v>
+        <v>2.608509636884336</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>9.295602517773128e-06</v>
+        <v>0.0001471891237494625</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2.608509636884336</v>
+        <v>9.276562617112136</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001471891237494625</v>
+        <v>1.202005860047624</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.276562617112136</v>
+        <v>0.01266630322766893</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.202005860047624</v>
+        <v>2.70072539729755</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01266630322766893</v>
+        <v>0.9314478593991878</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.70072539729755</v>
+        <v>1.900583810851996</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9314478593991878</v>
+        <v>3</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.900583810851996</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1795548374424897</v>
       </c>
     </row>
@@ -6845,72 +6761,66 @@
         <v>1.397751126034943e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.250441902889421</v>
+        <v>4.895928221455926e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.060251834325605</v>
+        <v>3.195027205047532e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.895928221455926e-07</v>
+        <v>0.04565290065250609</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.195027205047532e-06</v>
+        <v>0.180720244672183</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.04565290065250609</v>
+        <v>0.03474046125314405</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.180720244672183</v>
+        <v>1.442316269430663</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03474046125314405</v>
+        <v>1.365256800581925</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.356331381333378</v>
+        <v>3.920985299839761</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.365256800581925</v>
+        <v>2.322160545899748e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.920985299839761</v>
+        <v>10817465.3812571</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.322160545899748e-14</v>
+        <v>9.132656095467455e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>10817465.3812571</v>
+        <v>2.717335546808628</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>9.132656095467455e-06</v>
+        <v>0.0001484551092036005</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2.717335546808628</v>
+        <v>9.337450290934818</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001484551092036005</v>
+        <v>1.269301619814343</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.337450290934818</v>
+        <v>0.01294350078568229</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.269301619814343</v>
+        <v>2.692785029848637</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01294350078568229</v>
+        <v>0.9317808250017107</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.692785029848637</v>
+        <v>1.913780633265748</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9317808250017107</v>
+        <v>12</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.913780633265748</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1802364598870678</v>
       </c>
     </row>
@@ -6925,72 +6835,66 @@
         <v>1.380264899197853e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.3018578169718724</v>
+        <v>4.895928221455926e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.008866652714149</v>
+        <v>3.201349986498009e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.895928221455926e-07</v>
+        <v>0.045330640262635</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.201349986498009e-06</v>
+        <v>0.1840326641852691</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.045330640262635</v>
+        <v>0.03591995459786258</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1840326641852691</v>
+        <v>1.453951074526513</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03591995459786258</v>
+        <v>1.368832786243866</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.366092110766879</v>
+        <v>3.943111822722384</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.368832786243866</v>
+        <v>2.296172352213034e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.943111822722384</v>
+        <v>11302820.81058203</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.296172352213034e-14</v>
+        <v>8.910170308744744e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>11302820.81058203</v>
+        <v>2.93344647644948</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>8.910170308744744e-06</v>
+        <v>0.0001408084990429928</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2.93344647644948</v>
+        <v>8.497907097401709</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001408084990429928</v>
+        <v>1.312120888764923</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.497907097401709</v>
+        <v>0.01016840479858179</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.312120888764923</v>
+        <v>2.849139715016992</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01016840479858179</v>
+        <v>0.9312694411249828</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.849139715016992</v>
+        <v>1.893065873766204</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9312694411249828</v>
+        <v>12</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.893065873766204</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1804300033488296</v>
       </c>
     </row>
@@ -7005,72 +6909,66 @@
         <v>1.350346464668347e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.3433317878913368</v>
+        <v>4.895928221455926e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9559994032812029</v>
+        <v>3.207530361062329e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.895928221455926e-07</v>
+        <v>0.04499696015039075</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.207530361062329e-06</v>
+        <v>0.1895200902513559</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04499696015039075</v>
+        <v>0.03793947887261692</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1895200902513559</v>
+        <v>1.45142732285564</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03793947887261692</v>
+        <v>1.360333146646874</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.362718061072834</v>
+        <v>3.994424925289554</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.360333146646874</v>
+        <v>2.23755718873355e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.994424925289554</v>
+        <v>11631511.07014392</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.23755718873355e-14</v>
+        <v>8.635646474024311e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>11631511.07014392</v>
+        <v>3.027236985522813</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.635646474024311e-06</v>
+        <v>0.0001365845102282387</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>3.027236985522813</v>
+        <v>7.487739415976332</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001365845102282387</v>
+        <v>1.393867248774178</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.487739415976332</v>
+        <v>0.007657780144024552</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.393867248774178</v>
+        <v>2.977839321644026</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.007657780144024552</v>
+        <v>0.9305079596222117</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.977839321644026</v>
+        <v>1.899560353663412</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9305079596222117</v>
+        <v>13</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.899560353663412</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1752381892418947</v>
       </c>
     </row>
@@ -7085,72 +6983,66 @@
         <v>1.309161436559445e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.365438973084825</v>
+        <v>4.895928221455926e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.9189097049505026</v>
+        <v>3.213459230090128e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.895928221455926e-07</v>
+        <v>0.04393182933961546</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.213459230090128e-06</v>
+        <v>0.1979290900687987</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04393182933961546</v>
+        <v>0.0411026317038893</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1979290900687987</v>
+        <v>1.448748183726707</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0411026317038893</v>
+        <v>1.350850469930693</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.358507535910918</v>
+        <v>4.090694925379267</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.350850469930693</v>
+        <v>2.133479558684907e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.090694925379267</v>
+        <v>12113283.43125281</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.133479558684907e-14</v>
+        <v>8.259917447307712e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>12113283.43125281</v>
+        <v>3.130489449214954</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.259917447307712e-06</v>
+        <v>0.0001425645338630704</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3.130489449214954</v>
+        <v>8.191578318131608</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001425645338630704</v>
+        <v>1.272862981990841</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.191578318131608</v>
+        <v>0.00956635898464475</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.272862981990841</v>
+        <v>2.881974283721653</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.00956635898464475</v>
+        <v>0.9299593073612883</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.881974283721653</v>
+        <v>1.924917206711436</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9299593073612883</v>
+        <v>16</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.924917206711436</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1685159712213682</v>
       </c>
     </row>
@@ -7165,72 +7057,66 @@
         <v>1.259155055606905e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.3592397772965052</v>
+        <v>4.892320841501936e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.9202027803991344</v>
+        <v>3.218997758141763e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4.892320841501936e-07</v>
+        <v>0.04209883837269095</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.218997758141763e-06</v>
+        <v>0.2086710843190698</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.04209883837269095</v>
+        <v>0.04531294970565523</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2086710843190698</v>
+        <v>1.449942414879065</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.04531294970565523</v>
+        <v>1.337011862712065</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.358656674106793</v>
+        <v>4.23761175549668</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.337011862712065</v>
+        <v>1.988109684222486e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.23761175549668</v>
+        <v>12957545.68120785</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.988109684222486e-14</v>
+        <v>7.712890318504173e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>12957545.68120785</v>
+        <v>3.337996200407085</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>7.712890318504173e-06</v>
+        <v>0.0001582457936301164</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>3.337996200407085</v>
+        <v>9.889435414949226</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001582457936301164</v>
+        <v>1.151368375597872</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.889435414949226</v>
+        <v>0.01547658623288759</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.151368375597872</v>
+        <v>2.581772326358542</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01547658623288759</v>
+        <v>0.9289136057405535</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.581772326358542</v>
+        <v>1.909864547074131</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9289136057405535</v>
+        <v>16</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.909864547074131</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.166842405956773</v>
       </c>
     </row>
@@ -7245,72 +7131,66 @@
         <v>1.20461082384041e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.3214664893239463</v>
+        <v>4.80821439641672e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.9751574211310201</v>
+        <v>3.224027222556615e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>4.80821439641672e-07</v>
+        <v>0.03930265180348611</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.224027222556615e-06</v>
+        <v>0.2205235800300783</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.03930265180348611</v>
+        <v>0.0501721453998709</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2205235800300783</v>
+        <v>1.459599410318186</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.0501721453998709</v>
+        <v>1.334216928920097</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.367636577669682</v>
+        <v>4.312838659664784</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.334216928920097</v>
+        <v>1.778528739844838e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.312838659664784</v>
+        <v>14478969.80228982</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.778528739844838e-14</v>
+        <v>6.932475757464084e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>14478969.80228982</v>
+        <v>3.728517726209552</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>6.932475757464084e-06</v>
+        <v>0.0001549117793064774</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>3.728517726209552</v>
+        <v>9.715541621662416</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001549117793064774</v>
+        <v>1.173213909455603</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.715541621662416</v>
+        <v>0.0146223937897897</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.173213909455603</v>
+        <v>2.643867686083512</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0146223937897897</v>
+        <v>0.9294215543192897</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.643867686083512</v>
+        <v>1.895981336924987</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9294215543192897</v>
+        <v>16</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.895981336924987</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1686652033670896</v>
       </c>
     </row>
@@ -7325,72 +7205,66 @@
         <v>1.151282951741045e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2612786250451655</v>
+        <v>4.599539826478989e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.067396652617881</v>
+        <v>3.228422895268367e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.599539826478989e-07</v>
+        <v>0.0350101465486</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.228422895268367e-06</v>
+        <v>0.2317788615054559</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.0350101465486</v>
+        <v>0.05494174394432826</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2317788615054559</v>
+        <v>1.503743135682136</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.05494174394432826</v>
+        <v>1.436965638090659</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.412311347208248</v>
+        <v>4.319403832243969</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.436965638090659</v>
+        <v>1.745853411383732e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.319403832243969</v>
+        <v>14450860.26132834</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.745853411383732e-14</v>
+        <v>7.075883314223727e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>14450860.26132834</v>
+        <v>3.645819628485204</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>7.075883314223727e-06</v>
+        <v>0.0001435453726241783</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>3.645819628485204</v>
+        <v>8.44799068418876</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001435453726241783</v>
+        <v>1.261532148571654</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.44799068418876</v>
+        <v>0.01024462461536314</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.261532148571654</v>
+        <v>2.869147578050209</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01024462461536314</v>
+        <v>0.9350443897106051</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.869147578050209</v>
+        <v>1.883689280138793</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9350443897106051</v>
+        <v>15</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.883689280138793</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.171079074719908</v>
       </c>
     </row>
@@ -7405,72 +7279,66 @@
         <v>1.105406332420876e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.2011548924291721</v>
+        <v>4.263719014124787e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.143326272637182</v>
+        <v>3.232043508321611e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4.263719014124787e-07</v>
+        <v>0.02895160992592673</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.232043508321611e-06</v>
+        <v>0.2399650402216973</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.02895160992592673</v>
+        <v>0.05841305209856915</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2399650402216973</v>
+        <v>1.509188868056271</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.05841305209856915</v>
+        <v>1.426554784120128</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.418729787167468</v>
+        <v>4.23857982557101</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.426554784120128</v>
+        <v>1.813070372046111e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.23857982557101</v>
+        <v>13910194.63772069</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.813070372046111e-14</v>
+        <v>7.371674010320977e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>13910194.63772069</v>
+        <v>3.508173589744128</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>7.371674010320977e-06</v>
+        <v>0.0001432779038140079</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>3.508173589744128</v>
+        <v>7.969540205665425</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001432779038140079</v>
+        <v>1.343129823512616</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.969540205665425</v>
+        <v>0.009100091329476723</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.343129823512616</v>
+        <v>2.93243500629676</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.009100091329476723</v>
+        <v>0.9361990019484334</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.93243500629676</v>
+        <v>1.905201500795025</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9361990019484334</v>
+        <v>15</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.905201500795025</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1686128932735838</v>
       </c>
     </row>
@@ -7485,72 +7353,66 @@
         <v>1.070732562800185e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.1612054034770371</v>
+        <v>3.908364892594532e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.163446305015327</v>
+        <v>3.234834746541446e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.908364892594532e-07</v>
+        <v>0.02243223573660143</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.234834746541446e-06</v>
+        <v>0.2452353142935538</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.02243223573660143</v>
+        <v>0.06063716350139873</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2452353142935538</v>
+        <v>1.510129371806445</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.06063716350139873</v>
+        <v>1.3635191631623</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.419529894083596</v>
+        <v>4.252697319834025</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.3635191631623</v>
+        <v>1.801052810638532e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.252697319834025</v>
+        <v>14068427.82073491</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.801052810638532e-14</v>
+        <v>7.298223819315139e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>14068427.82073491</v>
+        <v>3.56465563402862</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>7.298223819315139e-06</v>
+        <v>0.0001518391591934273</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>3.56465563402862</v>
+        <v>8.717530364659117</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001518391591934273</v>
+        <v>1.289345565802307</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.717530364659117</v>
+        <v>0.01153906786904745</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.289345565802307</v>
+        <v>2.839174874624627</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01153906786904745</v>
+        <v>0.9378028967421301</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.839174874624627</v>
+        <v>1.875924957313415</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9378028967421301</v>
+        <v>15</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.875924957313415</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1637542587658384</v>
       </c>
     </row>
@@ -7565,72 +7427,66 @@
         <v>1.045833239944224e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.1371248111059008</v>
+        <v>3.650513373327129e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.150515458816409</v>
+        <v>3.236879936154311e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.650513373327129e-07</v>
+        <v>0.01626443055135062</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.236879936154311e-06</v>
+        <v>0.2502469260390954</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.01626443055135062</v>
+        <v>0.06288314724229636</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2502469260390954</v>
+        <v>1.527010928602542</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.06288314724229636</v>
+        <v>1.344257160772611</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.438571509309514</v>
+        <v>4.368886522533002</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.344257160772611</v>
+        <v>1.630525365639644e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.368886522533002</v>
+        <v>15868755.83917948</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.630525365639644e-14</v>
+        <v>6.54269997201524e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>15868755.83917948</v>
+        <v>4.105946775857609</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>6.54269997201524e-06</v>
+        <v>0.0001729911051662785</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>4.105946775857609</v>
+        <v>10.75889176580311</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001729911051662785</v>
+        <v>1.135689464023383</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.75889176580311</v>
+        <v>0.02002436949051307</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.135689464023383</v>
+        <v>2.513779899956736</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02002436949051307</v>
+        <v>0.9392660801136326</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.513779899956736</v>
+        <v>1.886946489899437</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9392660801136326</v>
+        <v>15</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.886946489899437</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.161120918924599</v>
       </c>
     </row>
@@ -7645,72 +7501,66 @@
         <v>1.028998922342037e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.1213728757508891</v>
+        <v>3.650513373327129e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.131087641307372</v>
+        <v>3.238254767283163e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.650513373327129e-07</v>
+        <v>0.01034030669832282</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.238254767283163e-06</v>
+        <v>0.2540716560095923</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.01034030669832282</v>
+        <v>0.06465555025255561</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2540716560095923</v>
+        <v>1.553459609520412</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.06465555025255561</v>
+        <v>1.407611820406001</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.466125595518735</v>
+        <v>3.995678187652877</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.407611820406001</v>
+        <v>1.569209182699662e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.995678187652877</v>
+        <v>16437303.7700265</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.569209182699662e-14</v>
+        <v>6.374635662237483e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>16437303.7700265</v>
+        <v>4.239767127712747</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.374635662237483e-06</v>
+        <v>0.00017598651245535</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>4.239767127712747</v>
+        <v>11.20022230542054</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.00017598651245535</v>
+        <v>1.075309294906339</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>11.20022230542054</v>
+        <v>0.02207662448082309</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.075309294906339</v>
+        <v>2.587443109637596</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.02207662448082309</v>
+        <v>0.9427973501256561</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.587443109637596</v>
+        <v>1.903175940161583</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9427973501256561</v>
+        <v>16</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.903175940161583</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1588895099361686</v>
       </c>
     </row>
@@ -7725,72 +7575,66 @@
         <v>1.019235399446713e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.1122636006493238</v>
+        <v>3.650513373327129e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.115999923109826</v>
+        <v>3.239047608263265e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3.650513373327129e-07</v>
+        <v>0.00526767966723335</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.239047608263265e-06</v>
+        <v>0.2563613765184756</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.00526767966723335</v>
+        <v>0.06574612168780916</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.2563613765184756</v>
+        <v>1.651187702374492</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.06574612168780916</v>
+        <v>1.406262476396263</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.567981999952146</v>
+        <v>4.135175529257594</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.406262476396263</v>
+        <v>1.465122534970723e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.135175529257594</v>
+        <v>16276957.77228145</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.465122534970723e-14</v>
+        <v>6.928865685618402e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>16276957.77228145</v>
+        <v>3.881686184157529</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>6.928865685618402e-06</v>
+        <v>0.0001618991321222108</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>3.881686184157529</v>
+        <v>9.193454958389172</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001618991321222108</v>
+        <v>1.873173495314952</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.193454958389172</v>
+        <v>0.01368365216554974</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.873173495314952</v>
+        <v>3.145398588685331</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01368365216554974</v>
+        <v>0.9478397954156528</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.145398588685331</v>
+        <v>1.783707466409455</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9478397954156528</v>
+        <v>15</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.783707466409455</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1866701663994189</v>
       </c>
     </row>
@@ -7805,72 +7649,66 @@
         <v>1.01566223486046e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.109027320688049</v>
+        <v>3.650513373327129e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.109596965204766</v>
+        <v>3.239338106598624e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3.650513373327129e-07</v>
+        <v>0.000434929852470449</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.239338106598624e-06</v>
+        <v>0.2567336860164894</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.000434929852470449</v>
+        <v>0.06590930969369441</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.2567336860164894</v>
+        <v>1.710734112049934</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.06590930969369441</v>
+        <v>1.408072287278812</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.632232904081489</v>
+        <v>5.536076022545215</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.408072287278812</v>
+        <v>5.713163854403543e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.536076022545215</v>
+        <v>42263562.70934995</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>5.713163854403543e-15</v>
+        <v>2.748037665372091e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>42263562.70934995</v>
+        <v>10.20490316915085</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.748037665372091e-06</v>
+        <v>9.887738464733694e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>10.20490316915085</v>
+        <v>6.278651225986805</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>9.887738464733694e-05</v>
+        <v>1.87461726234988</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>6.278651225986805</v>
+        <v>0.003897890984171288</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.87461726234988</v>
+        <v>3.409361755361772</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.003897890984171288</v>
+        <v>0.9509309554560965</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.409361755361772</v>
+        <v>1.777104824060725</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9509309554560965</v>
+        <v>15</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.777104824060725</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2960750364663406</v>
       </c>
     </row>
@@ -7885,72 +7723,66 @@
         <v>1.017855337177407e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.1103435696629826</v>
+        <v>3.650513373327129e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.114872576657753</v>
+        <v>3.239149452696805e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3.650513373327129e-07</v>
+        <v>-0.00390301291626566</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.239149452696805e-06</v>
+        <v>0.2551560748644915</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.00390301291626566</v>
+        <v>0.06511778428800029</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.2551560748644915</v>
+        <v>1.773213688729797</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.06511778428800029</v>
+        <v>1.574948332207595</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.702295218198681</v>
+        <v>5.57708127069559</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.574948332207595</v>
+        <v>1.747387679086258e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>5.57708127069559</v>
+        <v>131779611.059652</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.747387679086258e-15</v>
+        <v>8.954926535536783e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>131779611.059652</v>
+        <v>30.34490009465563</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>8.954926535536783e-07</v>
+        <v>0.0001030126563891595</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>30.34490009465563</v>
+        <v>6.852097401586528</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001030126563891595</v>
+        <v>1.309066485261613</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>6.852097401586528</v>
+        <v>0.004836571829635154</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.309066485261613</v>
+        <v>3.262544728711367</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.004836571829635154</v>
+        <v>0.9544238043611208</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.262544728711367</v>
+        <v>1.712611762207405</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9544238043611208</v>
+        <v>15</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.712611762207405</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2770288699423423</v>
       </c>
     </row>
@@ -7965,72 +7797,66 @@
         <v>1.023900575044134e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.1118216652229469</v>
+        <v>3.650513373327129e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.132524452343662</v>
+        <v>3.238597139209722e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>3.650513373327129e-07</v>
+        <v>-0.006653284129952516</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.238597139209722e-06</v>
+        <v>0.252667758810003</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.006653284129952516</v>
+        <v>0.06388304302327449</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.252667758810003</v>
+        <v>1.806121417710506</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.06388304302327449</v>
+        <v>1.718576105343651</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.744789340542957</v>
+        <v>4.460275302786709</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.718576105343651</v>
+        <v>1.39036130633498e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.460275302786709</v>
+        <v>159364043.144593</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.39036130633498e-15</v>
+        <v>7.420170095742385e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>159364043.144593</v>
+        <v>35.31086462410007</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>7.420170095742385e-07</v>
+        <v>0.0001193256633992575</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>35.31086462410007</v>
+        <v>8.034711723652503</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001193256633992575</v>
+        <v>1.485483775022115</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.034711723652503</v>
+        <v>0.007703258224733915</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.485483775022115</v>
+        <v>3.258396787681229</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.007703258224733915</v>
+        <v>0.9562100148186569</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.258396787681229</v>
+        <v>1.6502904398493</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9562100148186569</v>
+        <v>15</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.6502904398493</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2446402399654683</v>
       </c>
     </row>
@@ -8045,72 +7871,66 @@
         <v>1.031276275261434e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.1086002718166523</v>
+        <v>3.650513373327129e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.160363626053015</v>
+        <v>3.237835887299797e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>3.650513373327129e-07</v>
+        <v>-0.007748817836949104</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.237835887299797e-06</v>
+        <v>0.250219952484744</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.007748817836949104</v>
+        <v>0.06266645658619847</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.250219952484744</v>
+        <v>1.812320297130786</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.06266645658619847</v>
+        <v>1.779033147138338</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.748927033694284</v>
+        <v>4.543650626254484</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.779033147138338</v>
+        <v>1.979250101104635e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.543650626254484</v>
+        <v>108959514.5444144</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.979250101104635e-15</v>
+        <v>1.086079882383638e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>108959514.5444144</v>
+        <v>23.49800517178852</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.086079882383638e-06</v>
+        <v>0.0001473100578044665</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>23.49800517178852</v>
+        <v>9.779746059616366</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001473100578044665</v>
+        <v>1.421463602184307</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.779746059616366</v>
+        <v>0.01408923964246023</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.421463602184307</v>
+        <v>3.135230871476395</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01408923964246023</v>
+        <v>0.9540860279798794</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.135230871476395</v>
+        <v>1.64636842767478</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9540860279798794</v>
+        <v>6</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.64636842767478</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2324206582634904</v>
       </c>
     </row>
@@ -8125,72 +7945,66 @@
         <v>1.037219456069692e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.09917539857619342</v>
+        <v>3.650513373327129e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.189537974563745</v>
+        <v>3.237084060983111e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3.650513373327129e-07</v>
+        <v>-0.006339117748483508</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.237084060983111e-06</v>
+        <v>0.249990710591992</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.006339117748483508</v>
+        <v>0.06252706879379417</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.249990710591992</v>
+        <v>1.80625949497598</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.06252706879379417</v>
+        <v>1.674859893029575</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.747252106490135</v>
+        <v>4.079162541923693</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.674859893029575</v>
+        <v>2.96838414852448e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.079162541923693</v>
+        <v>69470799.35164627</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.96838414852448e-15</v>
+        <v>1.695125036508161e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>69470799.35164627</v>
+        <v>14.32599171938955</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.695125036508161e-06</v>
+        <v>0.000139582670405164</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>14.32599171938955</v>
+        <v>10.52068567384737</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.000139582670405164</v>
+        <v>1.291119542361907</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.52068567384737</v>
+        <v>0.01544968373267922</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.291119542361907</v>
+        <v>3.15497301805837</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01544968373267922</v>
+        <v>0.9541411956255489</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.15497301805837</v>
+        <v>1.694113915320075</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9541411956255489</v>
+        <v>6</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.694113915320075</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2353357830357942</v>
       </c>
     </row>
@@ -8205,72 +8019,66 @@
         <v>1.039972491050444e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.08859825275447876</v>
+        <v>3.650513373327129e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.206762831335147</v>
+        <v>3.236580690653114e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3.650513373327129e-07</v>
+        <v>-0.003001729515390566</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.236580690653114e-06</v>
+        <v>0.2533518570952082</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.003001729515390566</v>
+        <v>0.06417883325765834</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.2533518570952082</v>
+        <v>1.807324459601108</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.06417883325765834</v>
+        <v>1.573804944125513</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.751389914436808</v>
+        <v>3.872505167245232</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.573804944125513</v>
+        <v>3.429973292436536e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.872505167245232</v>
+        <v>59891451.48468946</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.429973292436536e-15</v>
+        <v>1.966436366479889e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>59891451.48468946</v>
+        <v>12.30326604637899</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.966436366479889e-06</v>
+        <v>0.0001198513061164534</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>12.30326604637899</v>
+        <v>10.65152916501887</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001198513061164534</v>
+        <v>1.094016531622344</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.65152916501887</v>
+        <v>0.01359773875089501</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.094016531622344</v>
+        <v>3.057092225190426</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01359773875089501</v>
+        <v>0.9552248334567091</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.057092225190426</v>
+        <v>1.669742655791495</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9552248334567091</v>
+        <v>5</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.669742655791495</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2456000881267086</v>
       </c>
     </row>
@@ -8285,72 +8093,66 @@
         <v>1.040286701889957e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.08620082386206987</v>
+        <v>3.650513373327129e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.209110451637115</v>
+        <v>3.236485271901319e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3.650513373327129e-07</v>
+        <v>0.001279267164835949</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.236485271901319e-06</v>
+        <v>0.2597456902542476</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.001279267164835949</v>
+        <v>0.0674431731577802</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2597456902542476</v>
+        <v>1.796548956761756</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.0674431731577802</v>
+        <v>1.653297300048841</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.736511660133489</v>
+        <v>4.03822543772526</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.653297300048841</v>
+        <v>3.154231974736832e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.03822543772526</v>
+        <v>64767207.2552466</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.154231974736832e-15</v>
+        <v>1.814000437463906e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>64767207.2552466</v>
+        <v>13.23134432739115</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.814000437463906e-06</v>
+        <v>0.0001297125889199456</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>13.23134432739115</v>
+        <v>10.33727784219232</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001297125889199456</v>
+        <v>1.149515994514179</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>10.33727784219232</v>
+        <v>0.01386099816365159</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.149515994514179</v>
+        <v>3.018975401816829</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01386099816365159</v>
+        <v>0.9552803130711297</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.018975401816829</v>
+        <v>1.66927543998375</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9552803130711297</v>
+        <v>2</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.66927543998375</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2218548268981115</v>
       </c>
     </row>
@@ -8365,72 +8167,66 @@
         <v>1.041264082491764e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.09450775098768538</v>
+        <v>3.650513373327129e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.21410038536895</v>
+        <v>3.236811666777789e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>3.650513373327129e-07</v>
+        <v>0.004963165255085784</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>3.236811666777789e-06</v>
+        <v>0.2663061513188952</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.004963165255085784</v>
+        <v>0.07090232855111128</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.2663061513188952</v>
+        <v>1.786445172354123</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.07090232855111128</v>
+        <v>1.740425462264131</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.726698343040097</v>
+        <v>4.040314436432222</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.740425462264131</v>
+        <v>3.15097109829353e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.040314436432222</v>
+        <v>65271648.85855727</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3.15097109829353e-15</v>
+        <v>1.798007547052221e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>65271648.85855727</v>
+        <v>13.42435991150873</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.798007547052221e-06</v>
+        <v>0.0001505600408628845</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>13.42435991150873</v>
+        <v>10.09779628850885</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001505600408628845</v>
+        <v>1.258684013149958</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>10.09779628850885</v>
+        <v>0.01535192832357268</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.258684013149958</v>
+        <v>2.968224265912297</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01535192832357268</v>
+        <v>0.9561149325690171</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.968224265912297</v>
+        <v>1.671859843419664</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9561149325690171</v>
+        <v>2</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.671859843419664</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1992178379592537</v>
       </c>
     </row>
@@ -8445,72 +8241,66 @@
         <v>1.046918092097092e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.09922234226034357</v>
+        <v>3.650513373327129e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.233280742080615</v>
+        <v>3.237506538294678e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>3.650513373327129e-07</v>
+        <v>0.00890743364990885</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>3.237506538294678e-06</v>
+        <v>0.2729144236224297</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.00890743364990885</v>
+        <v>0.0745237682576579</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.2729144236224297</v>
+        <v>1.765187001379266</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.0745237682576579</v>
+        <v>1.762593285261884</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.693366808523195</v>
+        <v>3.993035616134811</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.762593285261884</v>
+        <v>3.226029856500748e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.993035616134811</v>
+        <v>67246921.82333091</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>3.226029856500748e-15</v>
+        <v>1.737095837525968e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>67246921.82333091</v>
+        <v>14.58858605947463</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.737095837525968e-06</v>
+        <v>0.0001811645456208974</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>14.58858605947463</v>
+        <v>9.746153179362221</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001811645456208974</v>
+        <v>1.446018204165647</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.746153179362221</v>
+        <v>0.01720836760246265</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.446018204165647</v>
+        <v>2.89019643026601</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01720836760246265</v>
+        <v>0.9558765046741194</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.89019643026601</v>
+        <v>1.67888031315674</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9558765046741194</v>
+        <v>2</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.67888031315674</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1804922996453159</v>
       </c>
     </row>
@@ -8525,72 +8315,66 @@
         <v>1.063937889452497e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.06791848325704854</v>
+        <v>3.895679490536478e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.223025922241025</v>
+        <v>3.238822482166077e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>3.895679490536478e-07</v>
+        <v>0.01686943586227811</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>3.238822482166077e-06</v>
+        <v>0.2810028699314526</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.01686943586227811</v>
+        <v>0.07921478346930436</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.2810028699314526</v>
+        <v>1.739799453287883</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.07921478346930436</v>
+        <v>1.77977430015386</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.664755897230231</v>
+        <v>3.959051719634251</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.77977430015386</v>
+        <v>3.281651055366864e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.959051719634251</v>
+        <v>65904466.69147971</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.281651055366864e-15</v>
+        <v>1.76056802978675e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>65904466.69147971</v>
+        <v>14.25351902581723</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.76056802978675e-06</v>
+        <v>0.0001978944743471598</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>14.25351902581723</v>
+        <v>10.41095198569727</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001978944743471598</v>
+        <v>1.418090191132698</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>10.41095198569727</v>
+        <v>0.02144937070105205</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.418090191132698</v>
+        <v>2.832744167192126</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.02144937070105205</v>
+        <v>0.9557546201808296</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.832744167192126</v>
+        <v>1.67285577852104</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9557546201808296</v>
+        <v>2</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.67285577852104</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1765861515566901</v>
       </c>
     </row>
@@ -8605,72 +8389,66 @@
         <v>1.103180833803898e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.05330020803355943</v>
+        <v>4.680073388903542e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.037536392755442</v>
+        <v>3.241239073815984e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.680073388903542e-07</v>
+        <v>0.02819786864856366</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3.241239073815984e-06</v>
+        <v>0.2851615325762353</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.02819786864856366</v>
+        <v>0.08207786984402718</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.2851615325762353</v>
+        <v>1.698205548589918</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.08207786984402718</v>
+        <v>1.825346241057124</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.617282806935915</v>
+        <v>3.867744887277397</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.825346241057124</v>
+        <v>3.438421461258087e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.867744887277397</v>
+        <v>66526830.78666081</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.438421461258087e-15</v>
+        <v>1.716413523161435e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>66526830.78666081</v>
+        <v>15.21783177084366</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.716413523161435e-06</v>
+        <v>0.0001832083095390699</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>15.21783177084366</v>
+        <v>12.24017273606567</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001832083095390699</v>
+        <v>1.105719110060388</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>12.24017273606567</v>
+        <v>0.02744860395145683</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.105719110060388</v>
+        <v>2.769384963938772</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.02744860395145683</v>
+        <v>0.9537983753761786</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.769384963938772</v>
+        <v>1.724666786306102</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9537983753761786</v>
+        <v>3</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.724666786306102</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1938205769474864</v>
       </c>
     </row>
@@ -8685,72 +8463,66 @@
         <v>1.173189823630106e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.2916251590752839</v>
+        <v>5.434059214927088e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.5277687968963241</v>
+        <v>3.245084338292324e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>5.434059214927088e-07</v>
+        <v>0.03908313316720433</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>3.245084338292324e-06</v>
+        <v>0.2788336172391839</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.03908313316720433</v>
+        <v>0.07925018650512611</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.2788336172391839</v>
+        <v>1.685554776866493</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.07925018650512611</v>
+        <v>1.588698538486819</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.604858938453463</v>
+        <v>4.253916153138743</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.588698538486819</v>
+        <v>4.452884594911025e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.253916153138743</v>
+        <v>53764417.62228417</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>4.452884594911025e-15</v>
+        <v>2.108137207278384e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>53764417.62228417</v>
+        <v>12.87156432647428</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>2.108137207278384e-06</v>
+        <v>0.0001816174307006104</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>12.87156432647428</v>
+        <v>12.77683758883476</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001816174307006104</v>
+        <v>1.066305003154615</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>12.77683758883476</v>
+        <v>0.02964860582456825</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.066305003154615</v>
+        <v>2.732310857588566</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02964860582456825</v>
+        <v>0.9520864796814735</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.732310857588566</v>
+        <v>1.752801245589652</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9520864796814735</v>
+        <v>2</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.752801245589652</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1959855865412255</v>
       </c>
     </row>
@@ -8765,72 +8537,66 @@
         <v>1.273927085566268e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.5926905323230165</v>
+        <v>6.175206906753922e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.204078563369543</v>
+        <v>3.25042000580549e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>6.175206906753922e-07</v>
+        <v>0.04798183457519496</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>3.25042000580549e-06</v>
+        <v>0.265074344749142</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.04798183457519496</v>
+        <v>0.0725417011049623</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.265074344749142</v>
+        <v>1.64384986827442</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.0725417011049623</v>
+        <v>1.658476380318947</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.557528594904974</v>
+        <v>4.569333820103404</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.658476380318947</v>
+        <v>3.859344224129879e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.569333820103404</v>
+        <v>61577006.67253967</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>3.859344224129879e-15</v>
+        <v>1.811274016781883e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>61577006.67253967</v>
+        <v>14.63358259432997</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.811274016781883e-06</v>
+        <v>0.0001533592743233715</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>14.63358259432997</v>
+        <v>13.08770938694826</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001533592743233715</v>
+        <v>1.045268084115421</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>13.08770938694826</v>
+        <v>0.02626862439009491</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.045268084115421</v>
+        <v>2.923923579933083</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.02626862439009491</v>
+        <v>0.9507642127131999</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.923923579933083</v>
+        <v>1.766855738055247</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9507642127131999</v>
+        <v>3</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.766855738055247</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2238246472523755</v>
       </c>
     </row>
@@ -8845,72 +8611,66 @@
         <v>1.404954852495792e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.8992159764036438</v>
+        <v>6.950033296688924e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.990056326572426</v>
+        <v>3.257315344148175e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>6.950033296688924e-07</v>
+        <v>0.05456920653849511</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>3.257315344148175e-06</v>
+        <v>0.2480753235644595</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.05456920653849511</v>
+        <v>0.06450044234264704</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.2480753235644595</v>
+        <v>1.605897332522137</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.06450044234264704</v>
+        <v>1.742634515930846</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.516078296261132</v>
+        <v>4.34395895299711</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.742634515930846</v>
+        <v>4.386636568965416e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.34395895299711</v>
+        <v>55357642.72584636</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>4.386636568965416e-15</v>
+        <v>1.991108787241277e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>55357642.72584636</v>
+        <v>13.44271006101196</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>1.991108787241277e-06</v>
+        <v>0.0001162268198909161</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>13.44271006101196</v>
+        <v>11.0160839563968</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001162268198909161</v>
+        <v>1.298903119624246</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>11.0160839563968</v>
+        <v>0.01410460179021331</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.298903119624246</v>
+        <v>3.409196414857329</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01410460179021331</v>
+        <v>0.9494232931553505</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.409196414857329</v>
+        <v>1.750896074734122</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9494232931553505</v>
+        <v>7</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.750896074734122</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2514973027130754</v>
       </c>
     </row>
@@ -8925,72 +8685,66 @@
         <v>1.560733233556043e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1.154290789692491</v>
+        <v>7.627050679458145e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1.607804230125992</v>
+        <v>3.265655989589094e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>7.627050679458145e-07</v>
+        <v>0.05738389970486338</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>3.265655989589094e-06</v>
+        <v>0.2281775108639485</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.05738389970486338</v>
+        <v>0.05534860102143905</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.2281775108639485</v>
+        <v>1.598448203976707</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.05534860102143905</v>
+        <v>1.637492299180308</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.502973115030006</v>
+        <v>3.967549929267908</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.637492299180308</v>
+        <v>7.167229867137111e-15</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.967549929267908</v>
+        <v>34083569.7147963</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>7.167229867137111e-15</v>
+        <v>3.230969856817354e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>34083569.7147963</v>
+        <v>8.326097289806906</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>3.230969856817354e-06</v>
+        <v>8.938351403091425e-05</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>8.326097289806906</v>
+        <v>9.215489258897115</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>8.938351403091425e-05</v>
+        <v>1.598814475638816</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>9.215489258897115</v>
+        <v>0.00759091658498898</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.598814475638816</v>
+        <v>3.642063698963788</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.00759091658498898</v>
+        <v>0.9489082326782918</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.642063698963788</v>
+        <v>1.8069277530848</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9489082326782918</v>
+        <v>7</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.8069277530848</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2917778371651311</v>
       </c>
     </row>
@@ -9005,72 +8759,66 @@
         <v>1.729621125542584e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>1.320975742348461</v>
+        <v>8.126804462410705e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1.896033625251787</v>
+        <v>3.275080100107661e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>8.126804462410705e-07</v>
+        <v>0.05668488866347966</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>3.275080100107661e-06</v>
+        <v>0.2080128042070391</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.05668488866347966</v>
+        <v>0.0464800002196656</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.2080128042070391</v>
+        <v>1.541691354844973</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.0464800002196656</v>
+        <v>1.421759409837106</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.446952560495671</v>
+        <v>4.56113076045405</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.421759409837106</v>
+        <v>1.27069591544448e-14</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.56113076045405</v>
+        <v>19110086.47287338</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>1.27069591544448e-14</v>
+        <v>5.584587875939038e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>19110086.47287338</v>
+        <v>4.640523094734799</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>5.584587875939038e-06</v>
+        <v>8.368695560759499e-05</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>4.640523094734799</v>
+        <v>8.907183719529231</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>8.368695560759499e-05</v>
+        <v>1.705706433047521</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>8.907183719529231</v>
+        <v>0.006639549140800746</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.705706433047521</v>
+        <v>3.648021451251135</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.006639549140800746</v>
+        <v>0.9457717615303916</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.648021451251135</v>
+        <v>1.817508625837364</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9457717615303916</v>
+        <v>7</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.817508625837364</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.3164744482915485</v>
       </c>
     </row>
@@ -9085,72 +8833,66 @@
         <v>1.896887397978033e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1.393702185642494</v>
+        <v>8.332882706506845e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1.839493927081711</v>
+        <v>3.285032042553768e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>8.332882706506845e-07</v>
+        <v>0.05267234375874266</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>3.285032042553768e-06</v>
+        <v>0.1898797845837321</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.05267234375874266</v>
+        <v>0.0388285670295252</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1898797845837321</v>
+        <v>1.506046867678671</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.0388285670295252</v>
+        <v>1.40060425822127</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.414813797525568</v>
+        <v>3.806045566385915</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.40060425822127</v>
+        <v>1.901245338229262e-14</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>3.806045566385915</v>
+        <v>13236256.03311037</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>1.901245338229262e-14</v>
+        <v>7.86558297227952e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>13236256.03311037</v>
+        <v>3.330952815277955</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>7.86558297227952e-06</v>
+        <v>8.954001416155322e-05</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>3.330952815277955</v>
+        <v>10.20800019708432</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>8.954001416155322e-05</v>
+        <v>1.503334858545095</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>10.20800019708432</v>
+        <v>0.009330362094519854</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.503334858545095</v>
+        <v>3.570772407902768</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.009330362094519854</v>
+        <v>0.9424095209595632</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.570772407902768</v>
+        <v>1.842144559257402</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9424095209595632</v>
+        <v>7</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.842144559257402</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.270239937834631</v>
       </c>
     </row>
@@ -9165,72 +8907,66 @@
         <v>2.050451229088453e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1.393671350032676</v>
+        <v>8.359510375677262e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1.552233426417723</v>
+        <v>3.294909599772734e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>8.359510375677262e-07</v>
+        <v>0.04738838258839313</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>3.294909599772734e-06</v>
+        <v>0.1756192138354717</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.04738838258839313</v>
+        <v>0.03308716106549388</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1756192138354717</v>
+        <v>1.473113346050063</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.03308716106549388</v>
+        <v>1.390787872672963</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.380866756728394</v>
+        <v>3.799466392443672</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.390787872672963</v>
+        <v>1.907835449834402e-14</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>3.799466392443672</v>
+        <v>13612206.98179759</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1.907835449834402e-14</v>
+        <v>7.5521210999941e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>13612206.98179759</v>
+        <v>3.535069875116662</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>7.5521210999941e-06</v>
+        <v>0.0001031536281754862</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>3.535069875116662</v>
+        <v>11.10740129569234</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001031536281754862</v>
+        <v>1.126575676482871</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>11.10740129569234</v>
+        <v>0.0127265132233584</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.126575676482871</v>
+        <v>3.245623462431255</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.0127265132233584</v>
+        <v>0.9413539105481888</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.245623462431255</v>
+        <v>1.886705613458333</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9413539105481888</v>
+        <v>8</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.886705613458333</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.2338321599385362</v>
       </c>
     </row>
@@ -9607,7 +9343,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.57151150706922</v>
+        <v>1.598973893316713</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.612368552715425</v>
@@ -9696,7 +9432,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.587006982877002</v>
+        <v>1.605195788811254</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.478115662304259</v>
@@ -9785,7 +9521,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.583247242797914</v>
+        <v>1.601752014830899</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.322219739020409</v>
@@ -9874,7 +9610,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.616718973006174</v>
+        <v>1.630838494008938</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.372884769110533</v>
@@ -9963,7 +9699,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.615354965530813</v>
+        <v>1.629334660108164</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.532738989924562</v>
@@ -10052,7 +9788,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.651422480591431</v>
+        <v>1.656107563595855</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.496768490217898</v>
@@ -10141,7 +9877,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.655974159510149</v>
+        <v>1.663437520443219</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.647494415598912</v>
@@ -10230,7 +9966,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.654227388922906</v>
+        <v>1.664650649922669</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.561502266456812</v>
@@ -10319,7 +10055,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.658232175549781</v>
+        <v>1.670188605666137</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.49689936309548</v>
@@ -10408,7 +10144,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.676083568353573</v>
+        <v>1.685655443370425</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.260100596738877</v>
@@ -10497,7 +10233,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.690455056035538</v>
+        <v>1.692850206513089</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.613345246165772</v>
@@ -10586,7 +10322,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.744224080635378</v>
+        <v>1.733003584510731</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.961654833355353</v>
@@ -10675,7 +10411,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.742564403635394</v>
+        <v>1.733248163587041</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.766382866718139</v>
@@ -10764,7 +10500,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.725430083801012</v>
+        <v>1.720909439132736</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.72450023959017</v>
@@ -10853,7 +10589,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.747352993736273</v>
+        <v>1.744501173146936</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.713115454059102</v>
@@ -10942,7 +10678,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.738021630541281</v>
+        <v>1.732067690791961</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.810917903802297</v>
@@ -11031,7 +10767,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.760891249485693</v>
+        <v>1.750711929804088</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.997863833166293</v>
@@ -11120,7 +10856,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.748563982912375</v>
+        <v>1.739503539910358</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.368485066898943</v>
@@ -11209,7 +10945,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.659219436087247</v>
+        <v>1.673913728575636</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.335035473776156</v>
@@ -11298,7 +11034,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.657635141320507</v>
+        <v>1.673087437306826</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.215008975539568</v>
@@ -11387,7 +11123,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.655881449117692</v>
+        <v>1.674547663622864</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.280591599873249</v>
@@ -11476,7 +11212,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.663818417139358</v>
+        <v>1.686097373334802</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.271852677593811</v>
@@ -11565,7 +11301,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.666372589363444</v>
+        <v>1.686975549561246</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.293304756097081</v>
@@ -11654,7 +11390,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.66098240409699</v>
+        <v>1.679021355042969</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.229081545938163</v>
@@ -11743,7 +11479,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.60879901779147</v>
+        <v>1.628407154608681</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.277909651657069</v>
@@ -11832,7 +11568,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.587228598226536</v>
+        <v>1.608883590310442</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.186970848747413</v>
@@ -11921,7 +11657,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.549736032117062</v>
+        <v>1.575912981120002</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.268112094314537</v>
@@ -12010,7 +11746,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.505180689366941</v>
+        <v>1.527674593147003</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.241778551843679</v>
@@ -12099,7 +11835,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.496647376347028</v>
+        <v>1.522168883290558</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.252837216688023</v>
@@ -12188,7 +11924,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.434429937411061</v>
+        <v>1.455638768024611</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.358395378491509</v>
@@ -12277,7 +12013,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.440474754043493</v>
+        <v>1.475533851196054</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.29059837054269</v>
@@ -12366,7 +12102,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.440437715088936</v>
+        <v>1.474015046895877</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.405625810362878</v>
@@ -12455,7 +12191,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.466959981744016</v>
+        <v>1.498395102692031</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.05428919820714</v>
@@ -12544,7 +12280,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.497877675817485</v>
+        <v>1.53226176826878</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.367379668296491</v>
@@ -12633,7 +12369,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.501309887586339</v>
+        <v>1.536493668801794</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.400622469546696</v>
@@ -12722,7 +12458,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.499315084960123</v>
+        <v>1.533408083192076</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.390283360071633</v>
@@ -12811,7 +12547,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.491566667867123</v>
+        <v>1.524452673398332</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.358630231504709</v>
@@ -12900,7 +12636,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.464604543212324</v>
+        <v>1.49517624400461</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.492737125119035</v>
@@ -12989,7 +12725,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.448747441796666</v>
+        <v>1.487366803511582</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.264341941532996</v>
@@ -13078,7 +12814,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.479391030836851</v>
+        <v>1.523437932051048</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.383312708740908</v>
@@ -13167,7 +12903,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.487715789863258</v>
+        <v>1.532978757195017</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.52299968220619</v>
@@ -13256,7 +12992,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.515590092085038</v>
+        <v>1.564030911373408</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.513002794141901</v>
@@ -13345,7 +13081,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.551935853453664</v>
+        <v>1.599930922413691</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.386464708590517</v>
@@ -13434,7 +13170,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.596303534340025</v>
+        <v>1.639391326737571</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.048936750764888</v>
@@ -13523,7 +13259,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.680349350664619</v>
+        <v>1.717877362003939</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.104919732488174</v>
@@ -13612,7 +13348,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.68505589244745</v>
+        <v>1.719799917245271</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.378561544879786</v>
@@ -13701,7 +13437,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.688738860635184</v>
+        <v>1.722703562269888</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.271294651976826</v>
@@ -13790,7 +13526,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.688460703385539</v>
+        <v>1.722218651964452</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.375755462048803</v>
@@ -13879,7 +13615,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.688347719303151</v>
+        <v>1.718382078080317</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.307403422190615</v>
@@ -13968,7 +13704,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.67789116931175</v>
+        <v>1.710247736456626</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.310953191352331</v>
@@ -14057,7 +13793,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.657247670367447</v>
+        <v>1.686745014726279</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.354071414333778</v>
@@ -14146,7 +13882,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.629710134555088</v>
+        <v>1.66001511345328</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.174457549686814</v>
@@ -14235,7 +13971,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.625027176719791</v>
+        <v>1.638960411780564</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.136476103259106</v>
@@ -14324,7 +14060,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.641428645308677</v>
+        <v>1.654901024486147</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.518456158587716</v>
@@ -14413,7 +14149,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.624962330983738</v>
+        <v>1.638649510833879</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.525024625551531</v>
@@ -14502,7 +14238,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.623684938651146</v>
+        <v>1.636238406401703</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.483941334432122</v>
@@ -14591,7 +14327,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.606751450576576</v>
+        <v>1.619703581096654</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.420838660923986</v>
@@ -14680,7 +14416,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.596937424655534</v>
+        <v>1.611110611030248</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.362800937215968</v>
@@ -14769,7 +14505,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.596091731553833</v>
+        <v>1.612868197267574</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.33792005960031</v>
@@ -14858,7 +14594,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.566209400126382</v>
+        <v>1.582895063229657</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.408213606357189</v>
@@ -14947,7 +14683,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.50151259102701</v>
+        <v>1.520703050332407</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.453975155309592</v>
@@ -15036,7 +14772,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.406340391983605</v>
+        <v>1.419874005033711</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.163942784734398</v>
@@ -15125,7 +14861,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.391799264538101</v>
+        <v>1.407899632292884</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.174622778508338</v>
@@ -15214,7 +14950,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.392918196239002</v>
+        <v>1.411744106208742</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.216739658302019</v>
@@ -15303,7 +15039,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.397636295746475</v>
+        <v>1.416421047811973</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.217304086520816</v>
@@ -15392,7 +15128,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.411923933935287</v>
+        <v>1.429934807100063</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.090736913836338</v>
@@ -15481,7 +15217,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.432666480237292</v>
+        <v>1.452304801982785</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.145742363680211</v>
@@ -15570,7 +15306,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.469360014936329</v>
+        <v>1.489952813358911</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.138639310863957</v>
@@ -15659,7 +15395,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.46752090997938</v>
+        <v>1.490106741059157</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.194740686428289</v>
@@ -15748,7 +15484,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.469322024343284</v>
+        <v>1.490196505867862</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.210434867030123</v>
@@ -15837,7 +15573,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.452606782907988</v>
+        <v>1.472109623385034</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.213052400714123</v>
@@ -15926,7 +15662,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.450520629953215</v>
+        <v>1.471344838284811</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.197676655442577</v>
@@ -16015,7 +15751,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.453784602835984</v>
+        <v>1.474871910350475</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.232152263459934</v>
@@ -16104,7 +15840,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.45425868882629</v>
+        <v>1.477090053172103</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.231778267651588</v>
@@ -16193,7 +15929,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.470343883355811</v>
+        <v>1.498118037509406</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.18989212022691</v>
@@ -16282,7 +16018,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.536301213193806</v>
+        <v>1.561155432059351</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.916750253749794</v>
@@ -16371,7 +16107,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.649162969762763</v>
+        <v>1.663990688166063</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.348409166185441</v>
@@ -16460,7 +16196,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.655013292412752</v>
+        <v>1.663415390218473</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.516764432791574</v>
@@ -16549,7 +16285,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.668992947218172</v>
+        <v>1.666094573738416</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.403603154790989</v>
@@ -16638,7 +16374,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.670816666286279</v>
+        <v>1.66673030069478</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.508840798358293</v>
@@ -16727,7 +16463,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.602607565418225</v>
+        <v>1.608864333870228</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.126085218689503</v>
@@ -16816,7 +16552,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.544757282089779</v>
+        <v>1.556439219863496</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.132190689113007</v>
@@ -16905,7 +16641,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.561160935905809</v>
+        <v>1.572186713742192</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.121613778783134</v>
@@ -16994,7 +16730,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.563758964766444</v>
+        <v>1.574460792715815</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.132867370653933</v>
@@ -17083,7 +16819,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.563110157626157</v>
+        <v>1.570431612625042</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.063985877033021</v>
@@ -17172,7 +16908,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.597405979707549</v>
+        <v>1.600674080427483</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.991756163171864</v>
@@ -17261,7 +16997,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.491324721865225</v>
+        <v>1.506171387485189</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.150318232829589</v>
@@ -17547,7 +17283,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.500386143326818</v>
+        <v>1.471055392280061</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.331382247427071</v>
@@ -17636,7 +17372,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.513031519303147</v>
+        <v>1.478945123354663</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.279574934699514</v>
@@ -17725,7 +17461,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.530069768733512</v>
+        <v>1.486422753827991</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.290670606059197</v>
@@ -17814,7 +17550,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.594866029657246</v>
+        <v>1.543866004995425</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.214434449392016</v>
@@ -17903,7 +17639,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.647200080235059</v>
+        <v>1.580677070140583</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.490971623568822</v>
@@ -17992,7 +17728,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.621811748815957</v>
+        <v>1.562045121400366</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.931578916574451</v>
@@ -18081,7 +17817,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.618339754804963</v>
+        <v>1.549414231230627</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.795176306663937</v>
@@ -18170,7 +17906,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.62825807847524</v>
+        <v>1.55997571107899</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.851310933987142</v>
@@ -18259,7 +17995,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.647237918405399</v>
+        <v>1.591385843103076</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.130074517430469</v>
@@ -18348,7 +18084,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.599410095785249</v>
+        <v>1.565600944494536</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.142073265680896</v>
@@ -18437,7 +18173,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.577043577292996</v>
+        <v>1.547302229174289</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.174699066712234</v>
@@ -18526,7 +18262,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.568339080295918</v>
+        <v>1.533668987288475</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.22020782567779</v>
@@ -18615,7 +18351,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.571920656876292</v>
+        <v>1.544217533931448</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.157294950554853</v>
@@ -18704,7 +18440,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.571469440519639</v>
+        <v>1.546916787901403</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.200279172377677</v>
@@ -18793,7 +18529,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.567010159022295</v>
+        <v>1.546101322935414</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.189675885102008</v>
@@ -18882,7 +18618,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.53763844984609</v>
+        <v>1.519353593418059</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.192246166704155</v>
@@ -18971,7 +18707,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.524071616193424</v>
+        <v>1.51598234453839</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.23295264404362</v>
@@ -19060,7 +18796,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.520022454133728</v>
+        <v>1.518465042479298</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.285383899518438</v>
@@ -19149,7 +18885,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.499977257325219</v>
+        <v>1.49976503010798</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.199229002495663</v>
@@ -19238,7 +18974,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.495306408862499</v>
+        <v>1.490527723123872</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.19632262176005</v>
@@ -19327,7 +19063,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.49961347145124</v>
+        <v>1.491739649749688</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.296495148944436</v>
@@ -19416,7 +19152,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.498349049795895</v>
+        <v>1.49386775457698</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.244434414771165</v>
@@ -19505,7 +19241,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.490355528510213</v>
+        <v>1.484428247258654</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.188617361174839</v>
@@ -19594,7 +19330,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.477850776392853</v>
+        <v>1.457310724311917</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.259430855834264</v>
@@ -19683,7 +19419,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.490094937305703</v>
+        <v>1.456982983929381</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.553547395079665</v>
@@ -19772,7 +19508,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.503190393325167</v>
+        <v>1.469860070055721</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.354547515796948</v>
@@ -19861,7 +19597,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.508474039861921</v>
+        <v>1.475458347913419</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.752350573686073</v>
@@ -19950,7 +19686,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.514389193348747</v>
+        <v>1.483471545036122</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.535594236992561</v>
@@ -20039,7 +19775,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.532323360829406</v>
+        <v>1.513694257662816</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.302031506979192</v>
@@ -20128,7 +19864,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.520343491340091</v>
+        <v>1.504172211787829</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.276699645635919</v>
@@ -20217,7 +19953,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.537468178735391</v>
+        <v>1.520208890315396</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.419962942917284</v>
@@ -20306,7 +20042,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.543932607271835</v>
+        <v>1.523978021962104</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.263730786048463</v>
@@ -20395,7 +20131,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.552529334471523</v>
+        <v>1.527768501073102</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.353122000094786</v>
@@ -20484,7 +20220,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.535064774963742</v>
+        <v>1.510623421826282</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.34200162389302</v>
@@ -20573,7 +20309,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.543432282471425</v>
+        <v>1.521836897932101</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.24516414159483</v>
@@ -20662,7 +20398,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.542494222892271</v>
+        <v>1.524947911944476</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.241122665662479</v>
@@ -20751,7 +20487,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.539126473786465</v>
+        <v>1.527691763429611</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.250612328427084</v>
@@ -20840,7 +20576,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.538695489738346</v>
+        <v>1.523781118760588</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.20643546304466</v>
@@ -20929,7 +20665,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.542768976022814</v>
+        <v>1.526224957862592</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.370482142817361</v>
@@ -21018,7 +20754,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.548184798195124</v>
+        <v>1.534780812858421</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.273665766613977</v>
@@ -21107,7 +20843,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.555860568112152</v>
+        <v>1.545636843088149</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.243273707061504</v>
@@ -21196,7 +20932,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.548144873593979</v>
+        <v>1.540617069317144</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.216889928306854</v>
@@ -21285,7 +21021,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.546118405716196</v>
+        <v>1.530549314769893</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.325801357955078</v>
@@ -21374,7 +21110,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.526677246987961</v>
+        <v>1.486288855392968</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.393087313417539</v>
@@ -21463,7 +21199,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.536186667773877</v>
+        <v>1.496130890607576</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.009893280793448</v>
@@ -21552,7 +21288,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.535641593040272</v>
+        <v>1.49601274720072</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.750723450884937</v>
@@ -21641,7 +21377,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.52872307869416</v>
+        <v>1.487587185208776</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.889501183028162</v>
@@ -21730,7 +21466,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.548394926462654</v>
+        <v>1.501640969855164</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.453861056949709</v>
@@ -21819,7 +21555,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.575134940468955</v>
+        <v>1.524507292774134</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.123302843598733</v>
@@ -21908,7 +21644,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.581497578876873</v>
+        <v>1.527810591846369</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.890318518674566</v>
@@ -21997,7 +21733,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.588669933942095</v>
+        <v>1.528010890056798</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.968181147778416</v>
@@ -22086,7 +21822,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.59574225101447</v>
+        <v>1.529214106170175</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.887648471826046</v>
@@ -22175,7 +21911,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.588267630283173</v>
+        <v>1.527998097784389</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.664848276633154</v>
@@ -22264,7 +22000,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.587097647903145</v>
+        <v>1.529520632015273</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.681030104414321</v>
@@ -22353,7 +22089,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.589847614141322</v>
+        <v>1.537372782200612</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.770167025052208</v>
@@ -22442,7 +22178,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.602468546936579</v>
+        <v>1.548105442671112</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.493587087462659</v>
@@ -22531,7 +22267,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.613603737914791</v>
+        <v>1.565861071178623</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.764118805551215</v>
@@ -22620,7 +22356,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.620084413304206</v>
+        <v>1.580395795131845</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.767907546188628</v>
@@ -22709,7 +22445,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.63082193519642</v>
+        <v>1.596891906182791</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.832257327549454</v>
@@ -22798,7 +22534,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.642394921121721</v>
+        <v>1.604165090271963</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.6817016850715</v>
@@ -22887,7 +22623,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.618566043321117</v>
+        <v>1.586426514043696</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.715222056960504</v>
@@ -22976,7 +22712,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.542459651499129</v>
+        <v>1.519045564012002</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.485396949136598</v>
@@ -23065,7 +22801,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.526521623541877</v>
+        <v>1.495697177686645</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.488378378804359</v>
@@ -23154,7 +22890,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.510395230573148</v>
+        <v>1.483700536347802</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.51336499046825</v>
@@ -23243,7 +22979,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.510001103803873</v>
+        <v>1.483940990164848</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.453134165080149</v>
@@ -23332,7 +23068,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.503490926901734</v>
+        <v>1.479233836980087</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.488943111859076</v>
@@ -23421,7 +23157,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.497616587167985</v>
+        <v>1.474695396158082</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.508508790794045</v>
@@ -23510,7 +23246,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.509195480997449</v>
+        <v>1.478161732803125</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.487565208232736</v>
@@ -23599,7 +23335,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.509430476395324</v>
+        <v>1.484186467705592</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.439282937581317</v>
@@ -23688,7 +23424,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.50616440416098</v>
+        <v>1.476917629072138</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.541867829928189</v>
@@ -23777,7 +23513,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.500626610310081</v>
+        <v>1.474962953807061</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.398554638735013</v>
@@ -23866,7 +23602,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.497598615598284</v>
+        <v>1.464895173310341</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.498958848919749</v>
@@ -23955,7 +23691,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.492827520635131</v>
+        <v>1.461593653393193</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.565487692878913</v>
@@ -24044,7 +23780,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.499734046386144</v>
+        <v>1.482436090883201</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.029969682331246</v>
@@ -24133,7 +23869,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.497434949367157</v>
+        <v>1.49298535713533</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.062298850523766</v>
@@ -24222,7 +23958,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.51823927374187</v>
+        <v>1.513555245880936</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.979250372223964</v>
@@ -24311,7 +24047,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.565110399601297</v>
+        <v>1.557124155115098</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.108603924931461</v>
@@ -24400,7 +24136,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.583176428609067</v>
+        <v>1.585189861736388</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.009605973392993</v>
@@ -24489,7 +24225,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.601848579836739</v>
+        <v>1.600163606564199</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.053792025093764</v>
@@ -24578,7 +24314,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.655398985216115</v>
+        <v>1.655987993631343</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.825387918324983</v>
@@ -24667,7 +24403,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.6428206319556</v>
+        <v>1.659992936309144</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.867818085294474</v>
@@ -24756,7 +24492,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.624914480701157</v>
+        <v>1.644792072983623</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.877783561705441</v>
@@ -24845,7 +24581,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.623690315702099</v>
+        <v>1.643990879008899</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.875006239984777</v>
@@ -24934,7 +24670,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.618890936467526</v>
+        <v>1.638735369719324</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.8719621801398</v>
@@ -25023,7 +24759,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.621127232677223</v>
+        <v>1.633358766180673</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.892821317362011</v>
@@ -25112,7 +24848,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.616980854227182</v>
+        <v>1.625798479769176</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.869932755181602</v>
@@ -25201,7 +24937,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.606292545567056</v>
+        <v>1.616166198627776</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.857612192440891</v>
@@ -25487,7 +25223,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.627513130168893</v>
+        <v>1.575238519117383</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.197389481732896</v>
@@ -25576,7 +25312,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.628465870145038</v>
+        <v>1.570878494140351</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.190225344868505</v>
@@ -25665,7 +25401,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.624875709724263</v>
+        <v>1.560127260880565</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.23861665325989</v>
@@ -25754,7 +25490,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.625808238958437</v>
+        <v>1.566015859010262</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.219278498436283</v>
@@ -25843,7 +25579,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.618149737785752</v>
+        <v>1.561050046326491</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.133064990198396</v>
@@ -25932,7 +25668,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.616466191926157</v>
+        <v>1.559191926909036</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.246187508733377</v>
@@ -26021,7 +25757,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.611955065090671</v>
+        <v>1.551971099143073</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.279943753985905</v>
@@ -26110,7 +25846,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.625667234541271</v>
+        <v>1.557323933309092</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.199403459778137</v>
@@ -26199,7 +25935,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.675842474794715</v>
+        <v>1.61328115087322</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.261119379435555</v>
@@ -26288,7 +26024,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.726872928218958</v>
+        <v>1.649386124499662</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.230017546449689</v>
@@ -26377,7 +26113,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.727459932732074</v>
+        <v>1.645556165954404</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.329263290620916</v>
@@ -26466,7 +26202,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.729508703311576</v>
+        <v>1.647761340517139</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.282093026670461</v>
@@ -26555,7 +26291,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.737251158988454</v>
+        <v>1.653063432558746</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.202905804784119</v>
@@ -26644,7 +26380,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.740026155988556</v>
+        <v>1.665901029190283</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.322111447065979</v>
@@ -26733,7 +26469,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.746893462491305</v>
+        <v>1.676194217835201</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.326585604665868</v>
@@ -26822,7 +26558,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.746985357665119</v>
+        <v>1.683940511522885</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.352830025545126</v>
@@ -26911,7 +26647,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.745472131172656</v>
+        <v>1.68917458378317</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.34931190505472</v>
@@ -27000,7 +26736,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.747253990029125</v>
+        <v>1.698367515435648</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.323434287311642</v>
@@ -27089,7 +26825,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.723082463927026</v>
+        <v>1.677178492050999</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.357574772191446</v>
@@ -27178,7 +26914,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.728182798429539</v>
+        <v>1.669366084945273</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.341051104965744</v>
@@ -27267,7 +27003,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.729314535948074</v>
+        <v>1.665563413163129</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.33956856536929</v>
@@ -27356,7 +27092,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.734433049048931</v>
+        <v>1.671241865268442</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.352526322630147</v>
@@ -27445,7 +27181,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.732329011240811</v>
+        <v>1.668672294692471</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.276729349393127</v>
@@ -27534,7 +27270,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.71692754978615</v>
+        <v>1.634793224518406</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.806294575926117</v>
@@ -27623,7 +27359,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.738307918506041</v>
+        <v>1.649616039036335</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.556340791337802</v>
@@ -27712,7 +27448,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.737193219516729</v>
+        <v>1.645867513423578</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.455479750466277</v>
@@ -27801,7 +27537,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.732625912387165</v>
+        <v>1.645857269955656</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.304550594021179</v>
@@ -27890,7 +27626,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.731680884716514</v>
+        <v>1.652419374633519</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.321271005463069</v>
@@ -27979,7 +27715,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.763747477565726</v>
+        <v>1.696437937959066</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.430686441680839</v>
@@ -28068,7 +27804,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.764117889789985</v>
+        <v>1.699289729824994</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.418873074973538</v>
@@ -28157,7 +27893,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.773763072428751</v>
+        <v>1.711241383992642</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.401266138849311</v>
@@ -28246,7 +27982,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.779715538913049</v>
+        <v>1.7164583126123</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.467001300179769</v>
@@ -28335,7 +28071,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.788230685475481</v>
+        <v>1.721042129940028</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.610024066423335</v>
@@ -28424,7 +28160,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.805216233376207</v>
+        <v>1.733247761512321</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.399320120032104</v>
@@ -28513,7 +28249,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.803154220368085</v>
+        <v>1.744291875793537</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.377913660377171</v>
@@ -28602,7 +28338,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.802924760822823</v>
+        <v>1.749247650684736</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.319465591702732</v>
@@ -28691,7 +28427,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.797396345799386</v>
+        <v>1.740040815997203</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.48053208796582</v>
@@ -28780,7 +28516,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.790673655169319</v>
+        <v>1.727615139351959</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.442788620727267</v>
@@ -28869,7 +28605,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.795251140494435</v>
+        <v>1.734710305758451</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.41463496422505</v>
@@ -28958,7 +28694,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.793037391820939</v>
+        <v>1.735872117037736</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.475100068081593</v>
@@ -29047,7 +28783,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.789721349247974</v>
+        <v>1.743328898357076</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.397164837551336</v>
@@ -29136,7 +28872,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.795475774229072</v>
+        <v>1.748560352812882</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.427894336732825</v>
@@ -29225,7 +28961,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.795236569965889</v>
+        <v>1.741137462644261</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.465784455137455</v>
@@ -29314,7 +29050,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.764136899388426</v>
+        <v>1.691373304812358</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.515540279192888</v>
@@ -29403,7 +29139,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.762500231112756</v>
+        <v>1.682285145548735</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.079300099325653</v>
@@ -29492,7 +29228,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.757060500963672</v>
+        <v>1.663750758522102</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.287507777478266</v>
@@ -29581,7 +29317,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.759328944185961</v>
+        <v>1.660833649649959</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.675049867189861</v>
@@ -29670,7 +29406,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.752236692834977</v>
+        <v>1.659551234527722</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.768283445209383</v>
@@ -29759,7 +29495,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.756767537517964</v>
+        <v>1.6695883195035</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.979227000857868</v>
@@ -29848,7 +29584,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.753575640183043</v>
+        <v>1.660640659134843</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.442249107517464</v>
@@ -29937,7 +29673,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.750396371577426</v>
+        <v>1.661178602684103</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.779012665127591</v>
@@ -30026,7 +29762,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.738205055672478</v>
+        <v>1.654199084977231</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.01525358021355</v>
@@ -30115,7 +29851,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.738947358886239</v>
+        <v>1.660661825137308</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.868414501677938</v>
@@ -30204,7 +29940,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.735645120923047</v>
+        <v>1.661892824753501</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.442548173041176</v>
@@ -30293,7 +30029,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.735550597076813</v>
+        <v>1.667243636111111</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.431324572119419</v>
@@ -30382,7 +30118,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.743565043217683</v>
+        <v>1.677241353347457</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.649229918327013</v>
@@ -30471,7 +30207,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.7486636528426</v>
+        <v>1.685328673146591</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.513194472748097</v>
@@ -30560,7 +30296,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.755154430120182</v>
+        <v>1.701891157487339</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.722304915154836</v>
@@ -30649,7 +30385,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.763072235477762</v>
+        <v>1.718118128509632</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.004149178330496</v>
@@ -30738,7 +30474,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.762551202468</v>
+        <v>1.718040157749434</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.418366765835814</v>
@@ -30827,7 +30563,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.76310654241571</v>
+        <v>1.73034239336724</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.520170319400414</v>
@@ -30916,7 +30652,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.749630968112816</v>
+        <v>1.71492929714799</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.983893587955081</v>
@@ -31005,7 +30741,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.741205033030568</v>
+        <v>1.705801251651509</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.057025884730183</v>
@@ -31094,7 +30830,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.721718561126475</v>
+        <v>1.691709285634545</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.20065500158176</v>
@@ -31183,7 +30919,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.738492409087764</v>
+        <v>1.713466670466063</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.344641378514497</v>
@@ -31272,7 +31008,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.739737322892032</v>
+        <v>1.711636792934293</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.990699329070446</v>
@@ -31361,7 +31097,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.747137763582881</v>
+        <v>1.715758544408473</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.326858675515374</v>
@@ -31450,7 +31186,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.753169297131295</v>
+        <v>1.719310349420403</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.340211529799916</v>
@@ -31539,7 +31275,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.748190943967847</v>
+        <v>1.713072282948957</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.002735731247416</v>
@@ -31628,7 +31364,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.745336309294845</v>
+        <v>1.701601001734725</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.064051454242644</v>
@@ -31717,7 +31453,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.735594108113687</v>
+        <v>1.693808004511109</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.27305551097933</v>
@@ -31806,7 +31542,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.740964434103019</v>
+        <v>1.694101157151683</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.128360356487566</v>
@@ -31895,7 +31631,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.730843874358525</v>
+        <v>1.683863405873555</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.164977377612769</v>
@@ -31984,7 +31720,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.706208114231288</v>
+        <v>1.675349919308046</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.256800243743189</v>
@@ -32073,7 +31809,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.693536074177472</v>
+        <v>1.682323391771417</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.315783938190446</v>
@@ -32162,7 +31898,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.696545679653422</v>
+        <v>1.684655628975122</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.340958016987424</v>
@@ -32251,7 +31987,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.706715924339124</v>
+        <v>1.697496515228569</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.257461416446751</v>
@@ -32340,7 +32076,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.71301898858228</v>
+        <v>1.705709558197333</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.225392661134191</v>
@@ -32429,7 +32165,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.722804438238735</v>
+        <v>1.709924718902113</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.272077218498842</v>
@@ -32518,7 +32254,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.749571384624026</v>
+        <v>1.721111173520672</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.921927411543575</v>
@@ -32607,7 +32343,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.731494359029839</v>
+        <v>1.716362509994995</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.977288769154486</v>
@@ -32696,7 +32432,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.718337642120778</v>
+        <v>1.699225214876324</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.976823500778155</v>
@@ -32785,7 +32521,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.717257748286509</v>
+        <v>1.69968626499849</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.987962918507413</v>
@@ -32874,7 +32610,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.713773711151454</v>
+        <v>1.692869981339899</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.971820616504669</v>
@@ -32963,7 +32699,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.714476730381949</v>
+        <v>1.691165596542771</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.944940479428166</v>
@@ -33052,7 +32788,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.712237418284342</v>
+        <v>1.690190717902999</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.95211517769589</v>
@@ -33141,7 +32877,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.701471530249832</v>
+        <v>1.681700946730302</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.964893825187469</v>
@@ -33427,7 +33163,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.747797084389139</v>
+        <v>1.713985776454415</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.871863031616479</v>
@@ -33516,7 +33252,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.75195367095968</v>
+        <v>1.716226637318452</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.855666200296502</v>
@@ -33605,7 +33341,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.757564416053279</v>
+        <v>1.720527891752677</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.859519855739149</v>
@@ -33694,7 +33430,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.769088297546773</v>
+        <v>1.728547082165584</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.755129981987814</v>
@@ -33783,7 +33519,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.778989518188328</v>
+        <v>1.739409368276143</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.074129455875206</v>
@@ -33872,7 +33608,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.772505165322591</v>
+        <v>1.733054644454788</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.716779645286804</v>
@@ -33961,7 +33697,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.783372494640967</v>
+        <v>1.736259491218544</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.810148775745286</v>
@@ -34050,7 +33786,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.788425054166873</v>
+        <v>1.734681796922025</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.935367044960498</v>
@@ -34139,7 +33875,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.820586286423221</v>
+        <v>1.770493338285931</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.36659205269252</v>
@@ -34228,7 +33964,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.784807869533731</v>
+        <v>1.744388624252934</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.501049584273863</v>
@@ -34317,7 +34053,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.780944520256477</v>
+        <v>1.739765929375418</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.425890997881373</v>
@@ -34406,7 +34142,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.774099761102754</v>
+        <v>1.731035500926221</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.406145381280973</v>
@@ -34495,7 +34231,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.773813541037733</v>
+        <v>1.72961593772091</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.408834856412727</v>
@@ -34584,7 +34320,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.77714953093194</v>
+        <v>1.737969121416582</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.397585346416578</v>
@@ -34673,7 +34409,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.785640081148669</v>
+        <v>1.74880622299372</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.393156602704076</v>
@@ -34762,7 +34498,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.791334617873634</v>
+        <v>1.756857265978061</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.480416205398455</v>
@@ -34851,7 +34587,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.784357584558799</v>
+        <v>1.75169008286081</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.35694617966781</v>
@@ -34940,7 +34676,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.779132826627738</v>
+        <v>1.752446859542081</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.424847494261433</v>
@@ -35029,7 +34765,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.75685772062254</v>
+        <v>1.732772727143324</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.389815795679537</v>
@@ -35118,7 +34854,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.747685357463769</v>
+        <v>1.721167313124722</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.426005746678551</v>
@@ -35207,7 +34943,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.748248948312746</v>
+        <v>1.72105312325995</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.364394572239671</v>
@@ -35296,7 +35032,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.745962194369919</v>
+        <v>1.719509829463263</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.35865249253521</v>
@@ -35385,7 +35121,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.741207815411248</v>
+        <v>1.716612029494981</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.256600547324046</v>
@@ -35474,7 +35210,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.717910545426969</v>
+        <v>1.67295649517998</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.34440839008077</v>
@@ -35563,7 +35299,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.726980415965003</v>
+        <v>1.671493117919113</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.106443431760053</v>
@@ -35652,7 +35388,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.723398601152413</v>
+        <v>1.665682711771689</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.186230201797631</v>
@@ -35741,7 +35477,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.719400551414621</v>
+        <v>1.670579528555229</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.186133309306606</v>
@@ -35830,7 +35566,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.717969198283764</v>
+        <v>1.674767936317305</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.346470568231608</v>
@@ -35919,7 +35655,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.746604495922809</v>
+        <v>1.712841128606719</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.361306485223953</v>
@@ -36008,7 +35744,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.74329183031175</v>
+        <v>1.713841607231714</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.390243988674509</v>
@@ -36097,7 +35833,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.752743380276841</v>
+        <v>1.724826414800491</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.410358657702103</v>
@@ -36186,7 +35922,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.76268257486962</v>
+        <v>1.733190884831681</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.370736878568778</v>
@@ -36275,7 +36011,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.773648981035627</v>
+        <v>1.744469054768367</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.329516874985407</v>
@@ -36364,7 +36100,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.787976914957303</v>
+        <v>1.758341094712766</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.382775470967374</v>
@@ -36453,7 +36189,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.792629879389194</v>
+        <v>1.769000311952895</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.432052917506596</v>
@@ -36542,7 +36278,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.79695715299724</v>
+        <v>1.770939714337521</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.410711336548142</v>
@@ -36631,7 +36367,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.798914206355584</v>
+        <v>1.774695546437235</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.420915717943966</v>
@@ -36720,7 +36456,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.798774969814418</v>
+        <v>1.771267938041944</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.435914849348012</v>
@@ -36809,7 +36545,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.79664323157337</v>
+        <v>1.781766739781791</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.456608300353954</v>
@@ -36898,7 +36634,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.798302279947587</v>
+        <v>1.790013603314493</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.494395783895432</v>
@@ -36987,7 +36723,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.802895434851855</v>
+        <v>1.796416397815469</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.408073119483813</v>
@@ -37076,7 +36812,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.805915577324336</v>
+        <v>1.790795795242828</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.491571795271339</v>
@@ -37165,7 +36901,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.807583008980159</v>
+        <v>1.790611286225568</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.483135163550536</v>
@@ -37254,7 +36990,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.793376137954204</v>
+        <v>1.77120327021162</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.889148450292363</v>
@@ -37343,7 +37079,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.798698739411692</v>
+        <v>1.76731479313843</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.308802781854089</v>
@@ -37432,7 +37168,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.787029808272568</v>
+        <v>1.753376667612679</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.48240174554589</v>
@@ -37521,7 +37257,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.784693460107045</v>
+        <v>1.753262395894192</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.257729353874801</v>
@@ -37610,7 +37346,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.783856520343622</v>
+        <v>1.753006050356234</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.673515506797423</v>
@@ -37699,7 +37435,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.779975335400285</v>
+        <v>1.747775498780824</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.431155212468294</v>
@@ -37788,7 +37524,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.778986930018835</v>
+        <v>1.744159180845194</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.13108472569713</v>
@@ -37877,7 +37613,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.770651430950566</v>
+        <v>1.734797418596778</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.775109200508317</v>
@@ -37966,7 +37702,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.758576869684634</v>
+        <v>1.724490284114431</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.182283790577215</v>
@@ -38055,7 +37791,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.754752278378861</v>
+        <v>1.714822912761454</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.462228109621957</v>
@@ -38144,7 +37880,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.760955220284484</v>
+        <v>1.710406588676652</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.436202484727248</v>
@@ -38233,7 +37969,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.75345111890032</v>
+        <v>1.698881730690626</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.083996867490729</v>
@@ -38322,7 +38058,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.754885821052329</v>
+        <v>1.70116462178205</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.594123727732101</v>
@@ -38411,7 +38147,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.752677332646274</v>
+        <v>1.705150866927807</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.699993805347095</v>
@@ -38500,7 +38236,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.746502531337088</v>
+        <v>1.703255002297053</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.229076181326052</v>
@@ -38589,7 +38325,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.744899038938063</v>
+        <v>1.704591515287895</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.989945296756657</v>
@@ -38678,7 +38414,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.749943876102164</v>
+        <v>1.711294161576678</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.814014896711082</v>
@@ -38767,7 +38503,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.737217812936504</v>
+        <v>1.704589576970061</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.748796454504574</v>
@@ -38856,7 +38592,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.729113394509448</v>
+        <v>1.697804821025323</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.864738138817994</v>
@@ -38945,7 +38681,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.726853775561144</v>
+        <v>1.690797093428567</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.841393730295081</v>
@@ -39034,7 +38770,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.730413876378437</v>
+        <v>1.704134533547467</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.992135430409906</v>
@@ -39123,7 +38859,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.741444826710558</v>
+        <v>1.713901280564651</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.188988549780982</v>
@@ -39212,7 +38948,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.751428725370912</v>
+        <v>1.725973126301239</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.019666359263025</v>
@@ -39301,7 +39037,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.759176997392171</v>
+        <v>1.733149222743719</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.315034223023748</v>
@@ -39390,7 +39126,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.761544390913156</v>
+        <v>1.746304641526764</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.269965479335203</v>
@@ -39479,7 +39215,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.761420781402466</v>
+        <v>1.744425566953484</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.229185724983957</v>
@@ -39568,7 +39304,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.765840312422534</v>
+        <v>1.740862938760506</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.319259595406273</v>
@@ -39657,7 +39393,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.763999984912606</v>
+        <v>1.7424539738909</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.268963175148488</v>
@@ -39746,7 +39482,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.768846782342099</v>
+        <v>1.745438701651604</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.32112707139402</v>
@@ -39835,7 +39571,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.774331622487131</v>
+        <v>1.75251947189822</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.117786651389894</v>
@@ -39924,7 +39660,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.770116053010147</v>
+        <v>1.76213440345621</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.375715757546375</v>
@@ -40013,7 +39749,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.761197132343362</v>
+        <v>1.763927126554036</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.488260664998903</v>
@@ -40102,7 +39838,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.777653272570097</v>
+        <v>1.774874855395546</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.467510140831974</v>
@@ -40191,7 +39927,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.780991747776399</v>
+        <v>1.774506568878401</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.281679653766919</v>
@@ -40280,7 +40016,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.776891539891825</v>
+        <v>1.769137479157665</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.301141755975603</v>
@@ -40369,7 +40105,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.771271987992137</v>
+        <v>1.754564606439313</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.350755308619016</v>
@@ -40458,7 +40194,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.767545811423934</v>
+        <v>1.7496922301249</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.318238129086561</v>
@@ -40547,7 +40283,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.763928249511532</v>
+        <v>1.751173000574194</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.318494239555046</v>
@@ -40636,7 +40372,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.760059669688133</v>
+        <v>1.745294566510168</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.329360420397268</v>
@@ -40725,7 +40461,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.763317632000201</v>
+        <v>1.745973891010912</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.350592374880456</v>
@@ -40814,7 +40550,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.766862194082397</v>
+        <v>1.749626378674437</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.343392112079699</v>
@@ -40903,7 +40639,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.767200501695127</v>
+        <v>1.748075481558255</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.294254797108274</v>
@@ -40992,7 +40728,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.762223779363109</v>
+        <v>1.741806260007857</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.300063884373172</v>
@@ -41081,7 +40817,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.758449515461674</v>
+        <v>1.74222073956856</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.328611382065405</v>
@@ -41367,7 +41103,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.565492470048115</v>
+        <v>1.530805605962038</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.697344804718266</v>
@@ -41456,7 +41192,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.567308285448772</v>
+        <v>1.532752546360302</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.648230754852299</v>
@@ -41545,7 +41281,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.576255355603217</v>
+        <v>1.539857242899522</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.661632517285436</v>
@@ -41634,7 +41370,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.618065390916454</v>
+        <v>1.574200892532604</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.78758227066894</v>
@@ -41723,7 +41459,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.638468232209402</v>
+        <v>1.595117561595769</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.795168216502766</v>
@@ -41812,7 +41548,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.621117263341071</v>
+        <v>1.577419701927735</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.695112135930937</v>
@@ -41901,7 +41637,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.611755130767065</v>
+        <v>1.558114122777917</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.660188139365974</v>
@@ -41990,7 +41726,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.635958658709561</v>
+        <v>1.58411149248682</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.225614296193104</v>
@@ -42079,7 +41815,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.731863164377895</v>
+        <v>1.69298749153313</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.298646846297315</v>
@@ -42168,7 +41904,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.708613955445495</v>
+        <v>1.671793520485532</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.341711435301341</v>
@@ -42257,7 +41993,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.691421651480957</v>
+        <v>1.659123115842836</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.362417742340384</v>
@@ -42346,7 +42082,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.685375133697826</v>
+        <v>1.651358613319494</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.359707335353348</v>
@@ -42435,7 +42171,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.683637756282427</v>
+        <v>1.651482042291287</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.208399497611407</v>
@@ -42524,7 +42260,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.680377783434911</v>
+        <v>1.657846389303474</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.301358202231702</v>
@@ -42613,7 +42349,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.680965201624996</v>
+        <v>1.66086236973504</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.298206118264178</v>
@@ -42702,7 +42438,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.66320796265261</v>
+        <v>1.645687197530195</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.364337640754872</v>
@@ -42791,7 +42527,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.654545470695758</v>
+        <v>1.643603677886824</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.33365858694843</v>
@@ -42880,7 +42616,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.648478705462169</v>
+        <v>1.641847660712145</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.276455818995937</v>
@@ -42969,7 +42705,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.608612514147902</v>
+        <v>1.612244398878223</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.38531738995214</v>
@@ -43058,7 +42794,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.610281018704853</v>
+        <v>1.607192629032829</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.238961291297953</v>
@@ -43147,7 +42883,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.606914153916262</v>
+        <v>1.608054405375175</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.368874485662387</v>
@@ -43236,7 +42972,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.607142303415926</v>
+        <v>1.608844878138914</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.341197466409251</v>
@@ -43325,7 +43061,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.600354754223773</v>
+        <v>1.599885739222737</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.303541156769471</v>
@@ -43414,7 +43150,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.493772491491367</v>
+        <v>1.478045226890631</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.234892920515789</v>
@@ -43503,7 +43239,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.490955508686081</v>
+        <v>1.47741207158808</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.303460326654341</v>
@@ -43592,7 +43328,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.503499630809531</v>
+        <v>1.494022018916454</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.432692692093391</v>
@@ -43681,7 +43417,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.529730592598646</v>
+        <v>1.520573486021745</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.331553266226819</v>
@@ -43770,7 +43506,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.588900261134162</v>
+        <v>1.582604546192973</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.594134291538244</v>
@@ -43859,7 +43595,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.700492444726973</v>
+        <v>1.702246736243853</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.23060916850444</v>
@@ -43948,7 +43684,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.684227085730915</v>
+        <v>1.689183974284714</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.235513746528262</v>
@@ -44037,7 +43773,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.691267650469224</v>
+        <v>1.697128265715595</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.202525890578273</v>
@@ -44126,7 +43862,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.699041213295461</v>
+        <v>1.703790609871353</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.230549939807918</v>
@@ -44215,7 +43951,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.709512915953895</v>
+        <v>1.712107933141276</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.128729961412914</v>
@@ -44304,7 +44040,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.730508256955772</v>
+        <v>1.722679695589008</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.218017285828767</v>
@@ -44393,7 +44129,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.729882431899979</v>
+        <v>1.728563393490067</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.232659614597028</v>
@@ -44482,7 +44218,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.73348853705874</v>
+        <v>1.730481847850235</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.229921505259706</v>
@@ -44571,7 +44307,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.732913343037061</v>
+        <v>1.727917629390087</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.233349777279858</v>
@@ -44660,7 +44396,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.731077718550295</v>
+        <v>1.725547068396905</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.216501228065052</v>
@@ -44749,7 +44485,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.739641236582048</v>
+        <v>1.732256682849926</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.204997613125389</v>
@@ -44838,7 +44574,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.748490996371826</v>
+        <v>1.741282280593767</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.226514433554483</v>
@@ -44927,7 +44663,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.76273492008701</v>
+        <v>1.752429093024128</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.175211869877708</v>
@@ -45016,7 +44752,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.745125671086181</v>
+        <v>1.741095570200566</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.188750681413036</v>
@@ -45105,7 +44841,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.715580861187348</v>
+        <v>1.709337308099653</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.111041307828508</v>
@@ -45194,7 +44930,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.584069918020047</v>
+        <v>1.553473267668124</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.271787449997137</v>
@@ -45283,7 +45019,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.618070419922918</v>
+        <v>1.578364138824617</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.907143200005753</v>
@@ -45372,7 +45108,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.623477160537994</v>
+        <v>1.580669827843642</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.38918987530046</v>
@@ -45461,7 +45197,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.628210640430761</v>
+        <v>1.584230214760206</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.280235289013203</v>
@@ -45550,7 +45286,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.639670960219249</v>
+        <v>1.589456850378918</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.699474669566433</v>
@@ -45639,7 +45375,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.659726751214359</v>
+        <v>1.611913186588195</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.301660244667498</v>
@@ -45728,7 +45464,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.675349142076077</v>
+        <v>1.617702693315343</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.05400805160709</v>
@@ -45817,7 +45553,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.678919214176344</v>
+        <v>1.624172646531602</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.599185925795697</v>
@@ -45906,7 +45642,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.675759873394536</v>
+        <v>1.623644552473465</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.370347269166457</v>
@@ -45995,7 +45731,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.650543673499739</v>
+        <v>1.601177182218791</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.741833115484908</v>
@@ -46084,7 +45820,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.649655104415062</v>
+        <v>1.612946945212818</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.804846561991547</v>
@@ -46173,7 +45909,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.650496668381547</v>
+        <v>1.618885555773736</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.709270248023699</v>
@@ -46262,7 +45998,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.660531200132166</v>
+        <v>1.626351316911189</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.667033186185458</v>
@@ -46351,7 +46087,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.674764280164274</v>
+        <v>1.63955933141324</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.817937141321334</v>
@@ -46440,7 +46176,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.684610622673133</v>
+        <v>1.657678499802086</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.837101475972097</v>
@@ -46529,7 +46265,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.688273722568851</v>
+        <v>1.666468146497853</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.92870075094539</v>
@@ -46618,7 +46354,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.683438679600189</v>
+        <v>1.664991688323503</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.76407887228928</v>
@@ -46707,7 +46443,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.618527207753543</v>
+        <v>1.611086916058146</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.358793877371795</v>
@@ -46796,7 +46532,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.478817630665548</v>
+        <v>1.472833791727933</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.794810203066217</v>
@@ -46885,7 +46621,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.475767221130649</v>
+        <v>1.470031215242638</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.812998028425163</v>
@@ -46974,7 +46710,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.476230348110664</v>
+        <v>1.472594325468717</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.802781423765406</v>
@@ -47063,7 +46799,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.472776449072597</v>
+        <v>1.468526116295208</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.818306323721707</v>
@@ -47152,7 +46888,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.474692451853854</v>
+        <v>1.470315932939206</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.820180880024491</v>
@@ -47241,7 +46977,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.476094831322011</v>
+        <v>1.474426010580551</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.827251958299235</v>
@@ -47330,7 +47066,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.495808008334325</v>
+        <v>1.495237441087486</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.833406296031342</v>
@@ -47419,7 +47155,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.498437625962042</v>
+        <v>1.493700274607582</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.793625914250448</v>
@@ -47508,7 +47244,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.498263480922988</v>
+        <v>1.493643454948071</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.827235689202498</v>
@@ -47597,7 +47333,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.492909164017281</v>
+        <v>1.492683885765397</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.845572836015634</v>
@@ -47686,7 +47422,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.49797958462393</v>
+        <v>1.499471897242766</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.850465848201449</v>
@@ -47775,7 +47511,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.50151364288245</v>
+        <v>1.504192823139373</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.859453139346713</v>
@@ -47864,7 +47600,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.564854573482547</v>
+        <v>1.580791785971817</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.977709498696422</v>
@@ -47953,7 +47689,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.572620653673805</v>
+        <v>1.591006593754722</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.017695997715086</v>
@@ -48042,7 +47778,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.620042436894585</v>
+        <v>1.6396070271726</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.150124187834273</v>
@@ -48131,7 +47867,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.744981536887457</v>
+        <v>1.759386010362478</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.268102058304532</v>
@@ -48220,7 +47956,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.751490463575633</v>
+        <v>1.768248498114584</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.345346841104378</v>
@@ -48309,7 +48045,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.756509179081104</v>
+        <v>1.769485756665589</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.345738614820981</v>
@@ -48398,7 +48134,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.763476878799128</v>
+        <v>1.779849518765031</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.396897270949031</v>
@@ -48487,7 +48223,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.71116967601063</v>
+        <v>1.733881508191562</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.24633789037343</v>
@@ -48576,7 +48312,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.644142221549036</v>
+        <v>1.668636025786168</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.078574794412922</v>
@@ -48665,7 +48401,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.641780325656082</v>
+        <v>1.663997300127338</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.046583421947676</v>
@@ -48754,7 +48490,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.638056030393731</v>
+        <v>1.659212973492998</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.071937362669266</v>
@@ -48843,7 +48579,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.637982157541682</v>
+        <v>1.65274223059012</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.124167104139415</v>
@@ -48932,7 +48668,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.631164484905853</v>
+        <v>1.643891445062853</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.064386544509326</v>
@@ -49021,7 +48757,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.564462596419002</v>
+        <v>1.578448423041384</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.036715644042241</v>
@@ -49307,7 +49043,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.696420054740811</v>
+        <v>1.743967044047197</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.088626775692578</v>
@@ -49396,7 +49132,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.714082203260892</v>
+        <v>1.753899599910893</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.07792323769105</v>
@@ -49485,7 +49221,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.728581396544581</v>
+        <v>1.767407043042643</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.778756960057828</v>
@@ -49574,7 +49310,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.741728498933529</v>
+        <v>1.773732199284736</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.618838176036104</v>
@@ -49663,7 +49399,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.747175838548366</v>
+        <v>1.776768257816743</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.848175220580585</v>
@@ -49752,7 +49488,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.760971005633044</v>
+        <v>1.782061258646786</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.944797873158697</v>
@@ -49841,7 +49577,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.761066169926558</v>
+        <v>1.777591421460682</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.959605058237602</v>
@@ -49930,7 +49666,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.76139443025375</v>
+        <v>1.780529227218713</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.87419018286594</v>
@@ -50019,7 +49755,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.771022200664703</v>
+        <v>1.787874965156766</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.921305939139812</v>
@@ -50108,7 +49844,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.774807366547664</v>
+        <v>1.792499984669224</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.627291380083668</v>
@@ -50197,7 +49933,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.776963523974042</v>
+        <v>1.796422135043231</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.022651218896796</v>
@@ -50286,7 +50022,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.809053175596359</v>
+        <v>1.818079499452322</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.062930386400504</v>
@@ -50375,7 +50111,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.810982187452442</v>
+        <v>1.817088529177886</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.276997154495695</v>
@@ -50464,7 +50200,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.792675231142527</v>
+        <v>1.799497565858447</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.030710280584596</v>
@@ -50553,7 +50289,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.803316647592605</v>
+        <v>1.815653787969414</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.85046486213229</v>
@@ -50642,7 +50378,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.78867881057849</v>
+        <v>1.801349869942876</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.952947221068299</v>
@@ -50731,7 +50467,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.801998584623154</v>
+        <v>1.809972065013515</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.208925017233057</v>
@@ -50820,7 +50556,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.77390778296351</v>
+        <v>1.781754046273065</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.476309661468505</v>
@@ -50909,7 +50645,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.657139228502326</v>
+        <v>1.682432868574292</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.242329071821823</v>
@@ -50998,7 +50734,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.647206044464631</v>
+        <v>1.674006245216724</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.265176942725452</v>
@@ -51087,7 +50823,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.647004901936217</v>
+        <v>1.675699512862831</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.231039911327894</v>
@@ -51176,7 +50912,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.648977604085028</v>
+        <v>1.67659999692262</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.271614465778339</v>
@@ -51265,7 +51001,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.653288630655506</v>
+        <v>1.683193922434671</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.30200569324533</v>
@@ -51354,7 +51090,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.649031219889006</v>
+        <v>1.674752791843438</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.248158227320765</v>
@@ -51443,7 +51179,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.637082596501384</v>
+        <v>1.658790775655994</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.242600813530685</v>
@@ -51532,7 +51268,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.622108730689566</v>
+        <v>1.640795090365893</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.229064615592328</v>
@@ -51621,7 +51357,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.585773206530366</v>
+        <v>1.608262259866829</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.195419435969695</v>
@@ -51710,7 +51446,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.556005545559984</v>
+        <v>1.577876641672809</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.227911726736306</v>
@@ -51799,7 +51535,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.567966445139396</v>
+        <v>1.587836173385364</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.255040806879576</v>
@@ -51888,7 +51624,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.547022122787667</v>
+        <v>1.564346484054654</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.29705427013912</v>
@@ -51977,7 +51713,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.555936883585015</v>
+        <v>1.579713702726324</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.390172141315463</v>
@@ -52066,7 +51802,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.553869376170371</v>
+        <v>1.576882651677998</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.327665892267404</v>
@@ -52155,7 +51891,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.584320478637825</v>
+        <v>1.606939554526212</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.022263726959441</v>
@@ -52244,7 +51980,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.658433133865631</v>
+        <v>1.684617375493327</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.946123719685349</v>
@@ -52333,7 +52069,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.666118918687867</v>
+        <v>1.69487446707254</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.123685980715017</v>
@@ -52422,7 +52158,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.665858737608333</v>
+        <v>1.692372992822224</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.991766381467059</v>
@@ -52511,7 +52247,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.668313897660005</v>
+        <v>1.694518833803543</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.103860215513673</v>
@@ -52600,7 +52336,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.63720095232815</v>
+        <v>1.663805585402516</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.082294695781173</v>
@@ -52689,7 +52425,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.625397506924581</v>
+        <v>1.660595686960013</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.714754605858626</v>
@@ -52778,7 +52514,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.646270533475311</v>
+        <v>1.68493298985197</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.985766506502087</v>
@@ -52867,7 +52603,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.661583253736448</v>
+        <v>1.70005740020082</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.039262812136201</v>
@@ -52956,7 +52692,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.687783978697585</v>
+        <v>1.723707917437983</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.943933294787741</v>
@@ -53045,7 +52781,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.71418655296796</v>
+        <v>1.746937350314446</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.977388923175246</v>
@@ -53134,7 +52870,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.730763157845586</v>
+        <v>1.761313098923644</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.744694874345674</v>
@@ -53223,7 +52959,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.777753954850549</v>
+        <v>1.803146566680442</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.641115730560872</v>
@@ -53312,7 +53048,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.782949612833407</v>
+        <v>1.805948861038149</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.751852045055694</v>
@@ -53401,7 +53137,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.780528826309817</v>
+        <v>1.80381152068237</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.613318508437027</v>
@@ -53490,7 +53226,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.779568737134398</v>
+        <v>1.800988493396804</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.641520586874206</v>
@@ -53579,7 +53315,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.774788683853152</v>
+        <v>1.794536258137041</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.767475814960375</v>
@@ -53668,7 +53404,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.769943768581633</v>
+        <v>1.78889465044877</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.860326060291856</v>
@@ -53757,7 +53493,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.752415665933192</v>
+        <v>1.770201550542823</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.717918275579096</v>
@@ -53846,7 +53582,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.731969911262426</v>
+        <v>1.751274165799317</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.595442977013328</v>
@@ -53935,7 +53671,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.71847538384646</v>
+        <v>1.72671309470387</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.662345232054146</v>
@@ -54024,7 +53760,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.718730643033349</v>
+        <v>1.725281015770124</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.761772939924301</v>
@@ -54113,7 +53849,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.689530997733967</v>
+        <v>1.689285287642289</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.873430089594681</v>
@@ -54202,7 +53938,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.676416037886303</v>
+        <v>1.677190258507065</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.68527775829387</v>
@@ -54291,7 +54027,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.67146576922592</v>
+        <v>1.670146182938564</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.653999103882716</v>
@@ -54380,7 +54116,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.671015440655026</v>
+        <v>1.668709102023581</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.62798550154123</v>
@@ -54469,7 +54205,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.66500939505055</v>
+        <v>1.664921980028153</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.62443242215058</v>
@@ -54558,7 +54294,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.637898875804664</v>
+        <v>1.641517664648056</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.734539217016327</v>
@@ -54647,7 +54383,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.603123839674135</v>
+        <v>1.611548259832061</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.790296925848226</v>
@@ -54736,7 +54472,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.552433284563005</v>
+        <v>1.558644070019597</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.617021848324395</v>
@@ -54825,7 +54561,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.532042582457357</v>
+        <v>1.546290378957374</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.6014251915755</v>
@@ -54914,7 +54650,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.460999203813797</v>
+        <v>1.492075292894903</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.0918698034696</v>
@@ -55003,7 +54739,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.470983387880723</v>
+        <v>1.50258808168422</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.125679399902778</v>
@@ -55092,7 +54828,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.483991819161473</v>
+        <v>1.517069347019931</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.093748020464876</v>
@@ -55181,7 +54917,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.503409414832635</v>
+        <v>1.53908122987153</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.068469240534909</v>
@@ -55270,7 +55006,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.543992670247512</v>
+        <v>1.586855223597571</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.064817732604046</v>
@@ -55359,7 +55095,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.555087229058961</v>
+        <v>1.598719010511723</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.159526487597323</v>
@@ -55448,7 +55184,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.571465556868744</v>
+        <v>1.612457890566622</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.150706878739509</v>
@@ -55537,7 +55273,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.534104631334876</v>
+        <v>1.58387742907022</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.208944283668191</v>
@@ -55626,7 +55362,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.540397475340337</v>
+        <v>1.593038529264546</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.221944048460391</v>
@@ -55715,7 +55451,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.551151353372043</v>
+        <v>1.607939869231131</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.239744480585543</v>
@@ -55804,7 +55540,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.561237153776948</v>
+        <v>1.619734623171013</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.296800338172756</v>
@@ -55893,7 +55629,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.575116680564945</v>
+        <v>1.635232059472987</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.272047576659305</v>
@@ -55982,7 +55718,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.605144952821893</v>
+        <v>1.665051159799986</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.174764585132858</v>
@@ -56071,7 +55807,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.64518034985438</v>
+        <v>1.708198313454282</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.165067535204646</v>
@@ -56160,7 +55896,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.654580350370402</v>
+        <v>1.71136961015081</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.124648400303783</v>
@@ -56249,7 +55985,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.758844708595945</v>
+        <v>1.795228382304517</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.55155546671976</v>
@@ -56338,7 +56074,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.754315394185795</v>
+        <v>1.790994272381764</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.536492846774215</v>
@@ -56427,7 +56163,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.708814123534631</v>
+        <v>1.747904523816993</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.61110912820553</v>
@@ -56516,7 +56252,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.673631117853026</v>
+        <v>1.704515775689878</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.676530783800868</v>
@@ -56605,7 +56341,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.67229863316926</v>
+        <v>1.703031221699193</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.551377454206651</v>
@@ -56694,7 +56430,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.6707995444282</v>
+        <v>1.703004376862273</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.646131272431592</v>
@@ -56783,7 +56519,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.700899451010914</v>
+        <v>1.721955639033184</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.22165908948932</v>
@@ -56872,7 +56608,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.746573480111521</v>
+        <v>1.761974110764058</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.595372457305407</v>
@@ -56961,7 +56697,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.691082723791364</v>
+        <v>1.709504952147245</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.728143636285783</v>
